--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_20_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_20_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1183577.144563669</v>
+        <v>1177638.835752494</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18707540.76205263</v>
+        <v>18707540.76205264</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10375397.51596284</v>
+        <v>10375397.51596285</v>
       </c>
     </row>
     <row r="9">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.025423932859</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3.768007316532374</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>113.8158723039764</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.4621965088955</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>355.025423932859</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>355.025423932859</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>312.7063934000622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>117.6609829984442</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>75.84199783012947</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.638300348564712</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>13.89800318735079</v>
+        <v>182.1386896253336</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>101.5535788905865</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.49324417334925</v>
+        <v>77.49324417334927</v>
       </c>
       <c r="S13" t="n">
-        <v>55.57260957970492</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>229.0696442509355</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5296095801456</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>193.3873871287875</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -1596,7 +1596,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.025423932859</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="C14" t="n">
-        <v>355.025423932859</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>355.025423932859</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>59.69035092302342</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.0160424770386</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>329.046076129404</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,13 +1691,13 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>32.72759403420778</v>
       </c>
       <c r="G15" t="n">
         <v>117.6609829984442</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>111.3246482326984</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.8836805229861</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>132.8609517686139</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>177.5210747552478</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>82.25402824272972</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5669519213864</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.992301087403</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>101.5535788905865</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>77.49324417334927</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.9781466151479</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="D17" t="n">
-        <v>355.025423932859</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="E17" t="n">
-        <v>355.025423932859</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>355.025423932859</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>113.8158723039764</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>312.7063934000619</v>
       </c>
       <c r="X17" t="n">
-        <v>198.8905210960858</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>355.0254239328589</v>
       </c>
     </row>
     <row r="18">
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>96.45191869899685</v>
       </c>
       <c r="G18" t="n">
         <v>117.6609829984442</v>
       </c>
       <c r="H18" t="n">
-        <v>75.84199783012947</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.638300348564719</v>
+        <v>7.638300348564727</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1979,13 +1979,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>207.8836805229861</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
-        <v>125.2226514200491</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
         <v>187.4140068734885</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>89.48635083300981</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>93.09761164683935</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5669519213864</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.992301087403</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>101.5535788905865</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>77.49324417334927</v>
       </c>
       <c r="S19" t="n">
-        <v>183.2811567902616</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>229.0696442509355</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5296095801456</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>50.61552188340785</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>113.8158723039764</v>
       </c>
       <c r="T20" t="n">
-        <v>76.03003365236553</v>
+        <v>164.6146819420202</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0160424770386</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>355.025423932859</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>355.025423932859</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>355.0254239328589</v>
       </c>
     </row>
     <row r="21">
@@ -2174,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>31.49553386564737</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>75.84199783012947</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,13 +2213,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>57.40716879416673</v>
+        <v>170.3842387110332</v>
       </c>
       <c r="U21" t="n">
         <v>207.8836805229861</v>
       </c>
       <c r="V21" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>227.816073408046</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5669519213864</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.992301087403</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>100.7962942347329</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>77.49324417334927</v>
       </c>
       <c r="S22" t="n">
-        <v>183.2811567902616</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>229.0696442509355</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>172.8742469958659</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>355.025423932859</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,67 +2326,67 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>355.025423932859</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>312.706393400062</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>355.025423932859</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>50.61552188340785</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>355.025423932859</v>
-      </c>
-      <c r="X23" t="n">
-        <v>262.0908715166544</v>
-      </c>
       <c r="Y23" t="n">
-        <v>355.025423932859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,22 +2402,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>117.6609829984442</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.638300348564719</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>170.3842387110332</v>
+        <v>83.46786204373667</v>
       </c>
       <c r="U24" t="n">
         <v>207.8836805229861</v>
@@ -2459,13 +2459,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>64.54400483838143</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="25">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>61.70394654212928</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T25" t="n">
         <v>229.0696442509355</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>230.2817950109267</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>59.69035092302342</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>355.025423932859</v>
       </c>
       <c r="F26" t="n">
-        <v>146.5561628851768</v>
+        <v>355.025423932859</v>
       </c>
       <c r="G26" t="n">
         <v>355.025423932859</v>
       </c>
       <c r="H26" t="n">
-        <v>297.9069670906929</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>113.8158723039764</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>211.4621965088955</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.0160424770386</v>
@@ -2636,25 +2636,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>117.6609829984442</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.638300348564719</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>170.3842387110332</v>
       </c>
       <c r="U27" t="n">
-        <v>207.8836805229861</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
-        <v>187.4140068734885</v>
+        <v>14.03572175211065</v>
       </c>
       <c r="Y27" t="n">
-        <v>102.3670447411919</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="28">
@@ -2715,16 +2715,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>97.98034899327799</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5669519213864</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>141.6654351918504</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>312.7063934000619</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>355.025423932859</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="F29" t="n">
-        <v>355.025423932859</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>256.008977938252</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="H29" t="n">
-        <v>297.9069670906929</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>113.8158723039764</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2876,13 +2876,13 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>11.84528577443716</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>111.3246482326984</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>170.3842387110332</v>
+        <v>57.40716879416651</v>
       </c>
       <c r="U30" t="n">
         <v>207.8836805229861</v>
@@ -2936,10 +2936,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="31">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>152.2759116058158</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>5.670490449568647</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>101.5535788905865</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T31" t="n">
-        <v>229.0696442509355</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>38.82218415960286</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>355.025423932859</v>
       </c>
       <c r="F32" t="n">
-        <v>95.94064100176888</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>355.025423932859</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>297.9069670906929</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>50.61552188340785</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>355.025423932859</v>
       </c>
     </row>
     <row r="33">
@@ -3119,7 +3119,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3161,16 +3161,16 @@
         <v>111.3246482326984</v>
       </c>
       <c r="T33" t="n">
-        <v>170.3842387110332</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>165.8048230096258</v>
+        <v>207.8836805229861</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>31.17826764072868</v>
       </c>
       <c r="X33" t="n">
         <v>187.4140068734885</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.49324417334927</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>183.2811567902616</v>
@@ -3243,19 +3243,19 @@
         <v>229.0696442509355</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5296095801456</v>
+        <v>232.3143065429385</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>110.3499396817167</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>9.074829039615681</v>
       </c>
       <c r="E35" t="n">
-        <v>355.0254239328589</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>355.0254239328589</v>
+        <v>355.025423932859</v>
       </c>
       <c r="G35" t="n">
-        <v>355.0254239328589</v>
+        <v>355.025423932859</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>50.61552188340785</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.0160424770386</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>312.7063934000621</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>355.025423932859</v>
       </c>
     </row>
     <row r="36">
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>117.6609829984442</v>
+        <v>75.12434108249577</v>
       </c>
       <c r="H36" t="n">
-        <v>75.84199783012947</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.638300348564719</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>111.3246482326984</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>170.3842387110332</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>207.8836805229861</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>125.2226514200484</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
         <v>187.4140068734885</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5669519213864</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>229.0696442509355</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>282.5296095801456</v>
@@ -3486,13 +3486,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>174.9306074794352</v>
       </c>
       <c r="X37" t="n">
-        <v>198.6269805642624</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>312.7063934000621</v>
+        <v>355.025423932859</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>262.0908715166544</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>355.0254239328589</v>
+        <v>355.025423932859</v>
       </c>
       <c r="F38" t="n">
-        <v>355.0254239328589</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>355.0254239328589</v>
+        <v>355.025423932859</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>50.61552188340785</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3593,16 +3593,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>13.71483816869263</v>
       </c>
       <c r="G39" t="n">
-        <v>117.6609829984442</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>75.84199783012949</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.638300348564727</v>
+        <v>7.638300348564719</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3638,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>207.8836805229861</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>125.2226514200484</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>187.4140068734885</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5669519213864</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0269285450025</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2.723027704143212</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>229.0696442509355</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5296095801456</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>355.025423932859</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>9.074829039615681</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>355.025423932859</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>355.025423932859</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>50.61552188340785</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>113.8158723039764</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.4621965088955</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>253.0160424770386</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>105.7773887723527</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>355.0254239328589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
         <v>135.0820259802211</v>
@@ -3833,13 +3833,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>117.6609829984442</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>75.84199783012949</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.638300348564727</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>170.3842387110332</v>
       </c>
       <c r="U42" t="n">
-        <v>188.5323080211586</v>
+        <v>207.8836805229861</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>174.46374310051</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5669519213864</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>77.49324417334927</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>183.2811567902616</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>58.92248588451758</v>
+        <v>229.0696442509355</v>
       </c>
       <c r="U43" t="n">
         <v>282.5296095801456</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>247.995999879802</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>262.0908715166544</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>50.61552188340785</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>355.0254239328589</v>
-      </c>
-      <c r="X44" t="n">
-        <v>355.0254239328589</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>329.046076129404</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>27.74675691308169</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>117.6609829984442</v>
       </c>
       <c r="H45" t="n">
-        <v>17.84903723821196</v>
+        <v>75.84199783012947</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.638300348564719</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4115,16 +4115,16 @@
         <v>207.8836805229861</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,25 +4137,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5669519213864</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>101.5535788905865</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>278.028012289485</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.6508959751663</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.40203391462872</v>
+        <v>749.4311805633664</v>
       </c>
       <c r="C11" t="n">
-        <v>28.40203391462872</v>
+        <v>390.8196412372462</v>
       </c>
       <c r="D11" t="n">
-        <v>28.40203391462872</v>
+        <v>387.0135732407489</v>
       </c>
       <c r="E11" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="F11" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="G11" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="H11" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="I11" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="J11" t="n">
-        <v>100.0727921248345</v>
+        <v>100.0727921248351</v>
       </c>
       <c r="K11" t="n">
-        <v>240.4687168143663</v>
+        <v>240.4687168143666</v>
       </c>
       <c r="L11" t="n">
-        <v>438.6284212562733</v>
+        <v>438.6284212562736</v>
       </c>
       <c r="M11" t="n">
         <v>679.7044080739724</v>
       </c>
       <c r="N11" t="n">
-        <v>927.6802318418078</v>
+        <v>927.6802318418077</v>
       </c>
       <c r="O11" t="n">
         <v>1153.168850648442</v>
@@ -5062,31 +5062,31 @@
         <v>1323.192519378011</v>
       </c>
       <c r="Q11" t="n">
-        <v>1419.560928496659</v>
+        <v>1419.560928496658</v>
       </c>
       <c r="R11" t="n">
         <v>1420.101695731436</v>
       </c>
       <c r="S11" t="n">
-        <v>1420.101695731436</v>
+        <v>1305.136168151662</v>
       </c>
       <c r="T11" t="n">
-        <v>1420.101695731436</v>
+        <v>1091.537989859848</v>
       </c>
       <c r="U11" t="n">
-        <v>1420.101695731436</v>
+        <v>1091.537989859848</v>
       </c>
       <c r="V11" t="n">
-        <v>1420.101695731436</v>
+        <v>749.4311805633664</v>
       </c>
       <c r="W11" t="n">
-        <v>1061.490156405316</v>
+        <v>749.4311805633664</v>
       </c>
       <c r="X11" t="n">
-        <v>702.8786170791957</v>
+        <v>749.4311805633664</v>
       </c>
       <c r="Y11" t="n">
-        <v>387.013573240749</v>
+        <v>749.4311805633664</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>773.1965400290754</v>
+        <v>570.0235287390367</v>
       </c>
       <c r="C12" t="n">
-        <v>622.5423095891676</v>
+        <v>419.3692982991289</v>
       </c>
       <c r="D12" t="n">
-        <v>492.453342210648</v>
+        <v>289.2803309206092</v>
       </c>
       <c r="E12" t="n">
-        <v>356.0068513215357</v>
+        <v>152.8338400314969</v>
       </c>
       <c r="F12" t="n">
-        <v>231.5750452046675</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="G12" t="n">
-        <v>112.7255674284612</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="H12" t="n">
-        <v>36.11748881216884</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="I12" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="J12" t="n">
-        <v>253.592040968462</v>
+        <v>58.8570459887346</v>
       </c>
       <c r="K12" t="n">
-        <v>356.4451434772637</v>
+        <v>161.7101484975363</v>
       </c>
       <c r="L12" t="n">
-        <v>524.8534844124101</v>
+        <v>330.1184894326825</v>
       </c>
       <c r="M12" t="n">
-        <v>733.9600392874258</v>
+        <v>539.225044307698</v>
       </c>
       <c r="N12" t="n">
-        <v>957.9666416492456</v>
+        <v>763.2316466695177</v>
       </c>
       <c r="O12" t="n">
-        <v>1148.446052689144</v>
+        <v>953.7110577094156</v>
       </c>
       <c r="P12" t="n">
-        <v>1288.756079952046</v>
+        <v>1094.021084972318</v>
       </c>
       <c r="Q12" t="n">
         <v>1369.890960533467</v>
@@ -5156,16 +5156,16 @@
         <v>1307.652556102448</v>
       </c>
       <c r="V12" t="n">
-        <v>1307.652556102448</v>
+        <v>1085.112554473515</v>
       </c>
       <c r="W12" t="n">
-        <v>1293.614169044518</v>
+        <v>901.1340801044907</v>
       </c>
       <c r="X12" t="n">
-        <v>1104.30709139453</v>
+        <v>901.1340801044907</v>
       </c>
       <c r="Y12" t="n">
-        <v>924.9928744700368</v>
+        <v>721.819863179998</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28.40203391462872</v>
+        <v>443.8661534592073</v>
       </c>
       <c r="C13" t="n">
-        <v>28.40203391462872</v>
+        <v>443.8661534592073</v>
       </c>
       <c r="D13" t="n">
-        <v>28.40203391462872</v>
+        <v>443.8661534592073</v>
       </c>
       <c r="E13" t="n">
-        <v>28.40203391462872</v>
+        <v>288.3073413184098</v>
       </c>
       <c r="F13" t="n">
-        <v>28.40203391462872</v>
+        <v>130.9814065313828</v>
       </c>
       <c r="G13" t="n">
-        <v>28.40203391462872</v>
+        <v>130.9814065313828</v>
       </c>
       <c r="H13" t="n">
-        <v>28.40203391462872</v>
+        <v>130.9814065313828</v>
       </c>
       <c r="I13" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="J13" t="n">
-        <v>28.40203391462872</v>
+        <v>68.94056019848827</v>
       </c>
       <c r="K13" t="n">
-        <v>60.92665912938521</v>
+        <v>266.3202581559261</v>
       </c>
       <c r="L13" t="n">
-        <v>372.9116791349495</v>
+        <v>388.0951548951999</v>
       </c>
       <c r="M13" t="n">
-        <v>715.0981336877185</v>
+        <v>454.591289139421</v>
       </c>
       <c r="N13" t="n">
-        <v>876.6683028690215</v>
+        <v>789.9689676709354</v>
       </c>
       <c r="O13" t="n">
-        <v>1179.943361355555</v>
+        <v>1093.244026157469</v>
       </c>
       <c r="P13" t="n">
-        <v>1420.101695731436</v>
+        <v>1333.40236053335</v>
       </c>
       <c r="Q13" t="n">
         <v>1420.101695731436</v>
       </c>
       <c r="R13" t="n">
-        <v>1341.825691515932</v>
+        <v>1341.825691515931</v>
       </c>
       <c r="S13" t="n">
-        <v>1285.691742445523</v>
+        <v>1341.825691515931</v>
       </c>
       <c r="T13" t="n">
-        <v>1054.308263404174</v>
+        <v>1341.825691515931</v>
       </c>
       <c r="U13" t="n">
-        <v>768.9248193838246</v>
+        <v>1341.825691515931</v>
       </c>
       <c r="V13" t="n">
-        <v>768.9248193838246</v>
+        <v>1146.484896436348</v>
       </c>
       <c r="W13" t="n">
-        <v>485.5944173150023</v>
+        <v>863.1544943675256</v>
       </c>
       <c r="X13" t="n">
-        <v>251.5140950979854</v>
+        <v>629.0741721505086</v>
       </c>
       <c r="Y13" t="n">
-        <v>28.40203391462872</v>
+        <v>629.0741721505086</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>745.6251125668693</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="C14" t="n">
-        <v>387.013573240749</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="D14" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="E14" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="F14" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="G14" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="H14" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="I14" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="J14" t="n">
         <v>100.0727921248347</v>
       </c>
       <c r="K14" t="n">
-        <v>240.4687168143665</v>
+        <v>240.4687168143664</v>
       </c>
       <c r="L14" t="n">
-        <v>438.6284212562735</v>
+        <v>438.6284212562734</v>
       </c>
       <c r="M14" t="n">
-        <v>679.7044080739726</v>
+        <v>679.7044080739723</v>
       </c>
       <c r="N14" t="n">
-        <v>927.6802318418079</v>
+        <v>927.6802318418077</v>
       </c>
       <c r="O14" t="n">
         <v>1153.168850648442</v>
@@ -5299,7 +5299,7 @@
         <v>1323.192519378011</v>
       </c>
       <c r="Q14" t="n">
-        <v>1419.560928496659</v>
+        <v>1419.560928496658</v>
       </c>
       <c r="R14" t="n">
         <v>1420.101695731436</v>
@@ -5308,22 +5308,22 @@
         <v>1420.101695731436</v>
       </c>
       <c r="T14" t="n">
-        <v>1359.808411970806</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="U14" t="n">
-        <v>1104.23665189299</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="V14" t="n">
-        <v>1104.23665189299</v>
+        <v>1077.994886434954</v>
       </c>
       <c r="W14" t="n">
-        <v>1104.23665189299</v>
+        <v>719.3833471088337</v>
       </c>
       <c r="X14" t="n">
-        <v>1104.23665189299</v>
+        <v>387.0135732407489</v>
       </c>
       <c r="Y14" t="n">
-        <v>1104.23665189299</v>
+        <v>387.0135732407489</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>765.4810851315353</v>
+        <v>544.0184874282766</v>
       </c>
       <c r="C15" t="n">
-        <v>614.8268546916275</v>
+        <v>393.3642569883688</v>
       </c>
       <c r="D15" t="n">
-        <v>484.7378873131079</v>
+        <v>393.3642569883688</v>
       </c>
       <c r="E15" t="n">
-        <v>348.2913964239956</v>
+        <v>256.9177660992565</v>
       </c>
       <c r="F15" t="n">
         <v>223.8595903071274</v>
@@ -5351,58 +5351,58 @@
         <v>105.0101125309211</v>
       </c>
       <c r="H15" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="I15" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="J15" t="n">
         <v>253.592040968462</v>
       </c>
       <c r="K15" t="n">
-        <v>356.4451434772637</v>
+        <v>426.44469947709</v>
       </c>
       <c r="L15" t="n">
-        <v>524.8534844124101</v>
+        <v>594.8530404122363</v>
       </c>
       <c r="M15" t="n">
-        <v>733.9600392874258</v>
+        <v>803.9595952872519</v>
       </c>
       <c r="N15" t="n">
-        <v>957.9666416492456</v>
+        <v>1027.966197649072</v>
       </c>
       <c r="O15" t="n">
-        <v>1148.446052689144</v>
+        <v>1218.44560868897</v>
       </c>
       <c r="P15" t="n">
-        <v>1288.756079952046</v>
+        <v>1358.755635951872</v>
       </c>
       <c r="Q15" t="n">
-        <v>1369.890960533467</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="R15" t="n">
         <v>1420.101695731436</v>
       </c>
       <c r="S15" t="n">
-        <v>1420.101695731436</v>
+        <v>1307.652556102448</v>
       </c>
       <c r="T15" t="n">
-        <v>1420.101695731436</v>
+        <v>1307.652556102448</v>
       </c>
       <c r="U15" t="n">
-        <v>1420.101695731436</v>
+        <v>1097.669040422664</v>
       </c>
       <c r="V15" t="n">
-        <v>1420.101695731436</v>
+        <v>875.1290387937306</v>
       </c>
       <c r="W15" t="n">
-        <v>1285.898714146978</v>
+        <v>875.1290387937306</v>
       </c>
       <c r="X15" t="n">
-        <v>1096.591636496989</v>
+        <v>875.1290387937306</v>
       </c>
       <c r="Y15" t="n">
-        <v>917.2774195724967</v>
+        <v>695.8148218692379</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1083.400599651097</v>
+        <v>384.2714014782518</v>
       </c>
       <c r="C16" t="n">
-        <v>913.1954817170858</v>
+        <v>214.0662835442411</v>
       </c>
       <c r="D16" t="n">
-        <v>757.5623686196006</v>
+        <v>214.0662835442411</v>
       </c>
       <c r="E16" t="n">
-        <v>602.0035564788031</v>
+        <v>214.0662835442411</v>
       </c>
       <c r="F16" t="n">
-        <v>444.6776216917762</v>
+        <v>130.9814065313828</v>
       </c>
       <c r="G16" t="n">
-        <v>277.4382763166384</v>
+        <v>130.9814065313828</v>
       </c>
       <c r="H16" t="n">
         <v>130.9814065313828</v>
       </c>
       <c r="I16" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="J16" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="K16" t="n">
         <v>225.7817318720666</v>
       </c>
       <c r="L16" t="n">
-        <v>377.7601164812389</v>
+        <v>537.7667518776308</v>
       </c>
       <c r="M16" t="n">
-        <v>719.9465710340079</v>
+        <v>879.9532064303996</v>
       </c>
       <c r="N16" t="n">
-        <v>789.9689676709356</v>
+        <v>1215.330884961914</v>
       </c>
       <c r="O16" t="n">
-        <v>1093.244026157469</v>
+        <v>1388.44749773776</v>
       </c>
       <c r="P16" t="n">
-        <v>1333.40236053335</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="Q16" t="n">
         <v>1420.101695731436</v>
       </c>
       <c r="R16" t="n">
-        <v>1420.101695731436</v>
+        <v>1341.825691515931</v>
       </c>
       <c r="S16" t="n">
-        <v>1420.101695731436</v>
+        <v>1156.693209909607</v>
       </c>
       <c r="T16" t="n">
-        <v>1420.101695731436</v>
+        <v>1156.693209909607</v>
       </c>
       <c r="U16" t="n">
-        <v>1420.101695731436</v>
+        <v>1156.693209909607</v>
       </c>
       <c r="V16" t="n">
-        <v>1420.101695731436</v>
+        <v>890.7138647304308</v>
       </c>
       <c r="W16" t="n">
-        <v>1420.101695731436</v>
+        <v>607.3834626616085</v>
       </c>
       <c r="X16" t="n">
-        <v>1420.101695731436</v>
+        <v>607.3834626616085</v>
       </c>
       <c r="Y16" t="n">
-        <v>1268.608618342398</v>
+        <v>384.2714014782518</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1104.23665189299</v>
+        <v>745.6251125668691</v>
       </c>
       <c r="C17" t="n">
-        <v>1104.23665189299</v>
+        <v>387.0135732407489</v>
       </c>
       <c r="D17" t="n">
-        <v>745.6251125668693</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="E17" t="n">
-        <v>387.013573240749</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="F17" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="G17" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="H17" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="I17" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="J17" t="n">
-        <v>100.0727921248347</v>
+        <v>100.0727921248351</v>
       </c>
       <c r="K17" t="n">
-        <v>240.4687168143664</v>
+        <v>240.4687168143666</v>
       </c>
       <c r="L17" t="n">
-        <v>438.6284212562734</v>
+        <v>438.6284212562736</v>
       </c>
       <c r="M17" t="n">
-        <v>679.7044080739723</v>
+        <v>679.7044080739724</v>
       </c>
       <c r="N17" t="n">
         <v>927.6802318418077</v>
@@ -5536,31 +5536,31 @@
         <v>1323.192519378011</v>
       </c>
       <c r="Q17" t="n">
-        <v>1419.560928496659</v>
+        <v>1419.560928496658</v>
       </c>
       <c r="R17" t="n">
         <v>1420.101695731436</v>
       </c>
       <c r="S17" t="n">
-        <v>1305.136168151662</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T17" t="n">
-        <v>1305.136168151662</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="U17" t="n">
-        <v>1305.136168151662</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="V17" t="n">
-        <v>1305.136168151662</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="W17" t="n">
-        <v>1305.136168151662</v>
+        <v>1104.236651892989</v>
       </c>
       <c r="X17" t="n">
-        <v>1104.23665189299</v>
+        <v>1104.236651892989</v>
       </c>
       <c r="Y17" t="n">
-        <v>1104.23665189299</v>
+        <v>745.6251125668691</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>773.1965400290754</v>
+        <v>388.8396379815246</v>
       </c>
       <c r="C18" t="n">
-        <v>622.5423095891676</v>
+        <v>388.8396379815246</v>
       </c>
       <c r="D18" t="n">
-        <v>492.453342210648</v>
+        <v>388.8396379815246</v>
       </c>
       <c r="E18" t="n">
-        <v>356.0068513215357</v>
+        <v>252.3931470924123</v>
       </c>
       <c r="F18" t="n">
-        <v>231.5750452046675</v>
+        <v>154.9669665883751</v>
       </c>
       <c r="G18" t="n">
-        <v>112.7255674284612</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="H18" t="n">
         <v>36.11748881216884</v>
       </c>
       <c r="I18" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="J18" t="n">
-        <v>58.85704598873464</v>
+        <v>253.592040968462</v>
       </c>
       <c r="K18" t="n">
-        <v>161.7101484975364</v>
+        <v>376.2339642791214</v>
       </c>
       <c r="L18" t="n">
-        <v>330.1184894326827</v>
+        <v>544.6423052142677</v>
       </c>
       <c r="M18" t="n">
-        <v>681.5936591262132</v>
+        <v>753.7488600892832</v>
       </c>
       <c r="N18" t="n">
-        <v>905.6002614880329</v>
+        <v>977.7554624511029</v>
       </c>
       <c r="O18" t="n">
         <v>1168.234873491001</v>
@@ -5627,19 +5627,19 @@
         <v>1420.101695731436</v>
       </c>
       <c r="U18" t="n">
-        <v>1420.101695731436</v>
+        <v>1210.118180051652</v>
       </c>
       <c r="V18" t="n">
-        <v>1420.101695731436</v>
+        <v>987.5781784227188</v>
       </c>
       <c r="W18" t="n">
-        <v>1293.614169044518</v>
+        <v>757.4609325560057</v>
       </c>
       <c r="X18" t="n">
-        <v>1104.30709139453</v>
+        <v>568.1538549060174</v>
       </c>
       <c r="Y18" t="n">
-        <v>924.9928744700368</v>
+        <v>388.8396379815246</v>
       </c>
     </row>
     <row r="19">
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1003.585735083762</v>
+        <v>122.4400254770927</v>
       </c>
       <c r="C19" t="n">
-        <v>913.1954817170858</v>
+        <v>122.4400254770927</v>
       </c>
       <c r="D19" t="n">
-        <v>757.5623686196006</v>
+        <v>122.4400254770927</v>
       </c>
       <c r="E19" t="n">
-        <v>602.0035564788031</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="F19" t="n">
-        <v>444.6776216917762</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="G19" t="n">
-        <v>277.4382763166384</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="H19" t="n">
-        <v>130.9814065313828</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="I19" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="J19" t="n">
-        <v>28.40203391462872</v>
+        <v>68.94056019848827</v>
       </c>
       <c r="K19" t="n">
-        <v>60.92665912938518</v>
+        <v>266.3202581559261</v>
       </c>
       <c r="L19" t="n">
-        <v>372.9116791349495</v>
+        <v>578.3052781614904</v>
       </c>
       <c r="M19" t="n">
-        <v>541.2906243375071</v>
+        <v>920.4917327142593</v>
       </c>
       <c r="N19" t="n">
-        <v>876.6683028690215</v>
+        <v>1255.869411245774</v>
       </c>
       <c r="O19" t="n">
-        <v>1179.943361355555</v>
+        <v>1307.342920196838</v>
       </c>
       <c r="P19" t="n">
         <v>1420.101695731436</v>
@@ -5697,28 +5697,28 @@
         <v>1420.101695731436</v>
       </c>
       <c r="R19" t="n">
-        <v>1420.101695731436</v>
+        <v>1341.825691515931</v>
       </c>
       <c r="S19" t="n">
-        <v>1234.969214125111</v>
+        <v>1341.825691515931</v>
       </c>
       <c r="T19" t="n">
-        <v>1003.585735083762</v>
+        <v>1110.442212474582</v>
       </c>
       <c r="U19" t="n">
-        <v>1003.585735083762</v>
+        <v>825.0587684542334</v>
       </c>
       <c r="V19" t="n">
-        <v>1003.585735083762</v>
+        <v>825.0587684542334</v>
       </c>
       <c r="W19" t="n">
-        <v>1003.585735083762</v>
+        <v>541.7283663854109</v>
       </c>
       <c r="X19" t="n">
-        <v>1003.585735083762</v>
+        <v>307.648044168394</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.585735083762</v>
+        <v>307.648044168394</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>28.40203391462872</v>
+        <v>79.52882369584877</v>
       </c>
       <c r="C20" t="n">
-        <v>28.40203391462872</v>
+        <v>79.52882369584877</v>
       </c>
       <c r="D20" t="n">
-        <v>28.40203391462872</v>
+        <v>79.52882369584877</v>
       </c>
       <c r="E20" t="n">
-        <v>28.40203391462872</v>
+        <v>79.52882369584877</v>
       </c>
       <c r="F20" t="n">
-        <v>28.40203391462872</v>
+        <v>79.52882369584877</v>
       </c>
       <c r="G20" t="n">
-        <v>28.40203391462872</v>
+        <v>79.52882369584877</v>
       </c>
       <c r="H20" t="n">
-        <v>28.40203391462872</v>
+        <v>79.52882369584877</v>
       </c>
       <c r="I20" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="J20" t="n">
         <v>100.0727921248347</v>
@@ -5773,31 +5773,31 @@
         <v>1323.192519378011</v>
       </c>
       <c r="Q20" t="n">
-        <v>1419.560928496659</v>
+        <v>1419.560928496658</v>
       </c>
       <c r="R20" t="n">
         <v>1420.101695731436</v>
       </c>
       <c r="S20" t="n">
-        <v>1420.101695731436</v>
+        <v>1305.136168151662</v>
       </c>
       <c r="T20" t="n">
-        <v>1343.303681941168</v>
+        <v>1138.858711644571</v>
       </c>
       <c r="U20" t="n">
-        <v>1087.731921863351</v>
+        <v>1138.858711644571</v>
       </c>
       <c r="V20" t="n">
-        <v>745.6251125668693</v>
+        <v>796.7519023480891</v>
       </c>
       <c r="W20" t="n">
-        <v>387.013573240749</v>
+        <v>796.7519023480891</v>
       </c>
       <c r="X20" t="n">
-        <v>28.40203391462872</v>
+        <v>438.1403630219689</v>
       </c>
       <c r="Y20" t="n">
-        <v>28.40203391462872</v>
+        <v>79.52882369584877</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>179.0562643545365</v>
+        <v>287.4780135421899</v>
       </c>
       <c r="C21" t="n">
-        <v>28.40203391462872</v>
+        <v>136.8237831022821</v>
       </c>
       <c r="D21" t="n">
-        <v>28.40203391462872</v>
+        <v>136.8237831022821</v>
       </c>
       <c r="E21" t="n">
-        <v>28.40203391462872</v>
+        <v>136.8237831022821</v>
       </c>
       <c r="F21" t="n">
-        <v>28.40203391462872</v>
+        <v>136.8237831022821</v>
       </c>
       <c r="G21" t="n">
-        <v>28.40203391462872</v>
+        <v>105.0101125309211</v>
       </c>
       <c r="H21" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="I21" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="J21" t="n">
-        <v>58.85704598873464</v>
+        <v>58.85704598873463</v>
       </c>
       <c r="K21" t="n">
-        <v>161.7101484975364</v>
+        <v>161.7101484975363</v>
       </c>
       <c r="L21" t="n">
-        <v>330.1184894326827</v>
+        <v>330.1184894326826</v>
       </c>
       <c r="M21" t="n">
-        <v>676.4910279555415</v>
+        <v>539.2250443076982</v>
       </c>
       <c r="N21" t="n">
-        <v>1027.966197649072</v>
+        <v>763.2316466695179</v>
       </c>
       <c r="O21" t="n">
-        <v>1218.44560868897</v>
+        <v>953.7110577094159</v>
       </c>
       <c r="P21" t="n">
-        <v>1358.755635951872</v>
+        <v>1094.021084972318</v>
       </c>
       <c r="Q21" t="n">
         <v>1420.101695731436</v>
@@ -5861,22 +5861,22 @@
         <v>1420.101695731436</v>
       </c>
       <c r="T21" t="n">
-        <v>1362.114656545409</v>
+        <v>1247.996404104129</v>
       </c>
       <c r="U21" t="n">
-        <v>1152.131140865625</v>
+        <v>1038.012888424345</v>
       </c>
       <c r="V21" t="n">
-        <v>929.5911392366921</v>
+        <v>1038.012888424345</v>
       </c>
       <c r="W21" t="n">
-        <v>699.473893369979</v>
+        <v>807.8956425576323</v>
       </c>
       <c r="X21" t="n">
-        <v>510.1668157199907</v>
+        <v>618.588564907644</v>
       </c>
       <c r="Y21" t="n">
-        <v>330.8525987954979</v>
+        <v>439.2743479831512</v>
       </c>
     </row>
     <row r="22">
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>925.309730868258</v>
+        <v>198.6071518486395</v>
       </c>
       <c r="C22" t="n">
-        <v>755.1046129342473</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="D22" t="n">
-        <v>599.471499836762</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="E22" t="n">
-        <v>443.9126876959645</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="F22" t="n">
-        <v>443.9126876959645</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="G22" t="n">
-        <v>276.6733423208267</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="H22" t="n">
-        <v>130.2164725355711</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="I22" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="J22" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="K22" t="n">
-        <v>60.92665912938518</v>
+        <v>60.92665912938517</v>
       </c>
       <c r="L22" t="n">
-        <v>372.9116791349495</v>
+        <v>372.9116791349494</v>
       </c>
       <c r="M22" t="n">
-        <v>715.0981336877184</v>
+        <v>715.0981336877182</v>
       </c>
       <c r="N22" t="n">
         <v>1050.475812219233</v>
@@ -5934,28 +5934,28 @@
         <v>1420.101695731436</v>
       </c>
       <c r="R22" t="n">
-        <v>1341.825691515932</v>
+        <v>1341.825691515931</v>
       </c>
       <c r="S22" t="n">
-        <v>1156.693209909607</v>
+        <v>1341.825691515931</v>
       </c>
       <c r="T22" t="n">
-        <v>925.309730868258</v>
+        <v>1341.825691515931</v>
       </c>
       <c r="U22" t="n">
-        <v>925.309730868258</v>
+        <v>1167.205240004956</v>
       </c>
       <c r="V22" t="n">
-        <v>925.309730868258</v>
+        <v>901.22589482578</v>
       </c>
       <c r="W22" t="n">
-        <v>925.309730868258</v>
+        <v>617.8954927569577</v>
       </c>
       <c r="X22" t="n">
-        <v>925.309730868258</v>
+        <v>383.8151705399408</v>
       </c>
       <c r="Y22" t="n">
-        <v>925.309730868258</v>
+        <v>383.8151705399408</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>438.1403630219691</v>
+        <v>702.8786170791955</v>
       </c>
       <c r="C23" t="n">
-        <v>438.1403630219691</v>
+        <v>702.8786170791955</v>
       </c>
       <c r="D23" t="n">
-        <v>438.1403630219691</v>
+        <v>702.8786170791955</v>
       </c>
       <c r="E23" t="n">
-        <v>438.1403630219691</v>
+        <v>344.2670777530752</v>
       </c>
       <c r="F23" t="n">
-        <v>438.1403630219691</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="G23" t="n">
-        <v>79.52882369584879</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="H23" t="n">
-        <v>79.52882369584879</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="I23" t="n">
         <v>28.40203391462872</v>
       </c>
       <c r="J23" t="n">
-        <v>100.0727921248351</v>
+        <v>100.0727921248347</v>
       </c>
       <c r="K23" t="n">
-        <v>240.4687168143668</v>
+        <v>240.4687168143664</v>
       </c>
       <c r="L23" t="n">
-        <v>438.6284212562738</v>
+        <v>438.6284212562734</v>
       </c>
       <c r="M23" t="n">
-        <v>679.7044080739728</v>
+        <v>679.7044080739727</v>
       </c>
       <c r="N23" t="n">
-        <v>927.6802318418081</v>
+        <v>927.680231841808</v>
       </c>
       <c r="O23" t="n">
         <v>1153.168850648442</v>
@@ -6010,7 +6010,7 @@
         <v>1323.192519378011</v>
       </c>
       <c r="Q23" t="n">
-        <v>1419.560928496659</v>
+        <v>1419.560928496658</v>
       </c>
       <c r="R23" t="n">
         <v>1420.101695731436</v>
@@ -6028,13 +6028,13 @@
         <v>1420.101695731436</v>
       </c>
       <c r="W23" t="n">
+        <v>1420.101695731436</v>
+      </c>
+      <c r="X23" t="n">
         <v>1061.490156405316</v>
       </c>
-      <c r="X23" t="n">
-        <v>796.7519023480893</v>
-      </c>
       <c r="Y23" t="n">
-        <v>438.1403630219691</v>
+        <v>1061.490156405316</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>179.0562643545365</v>
+        <v>572.1566552959148</v>
       </c>
       <c r="C24" t="n">
-        <v>28.40203391462872</v>
+        <v>421.5024248560071</v>
       </c>
       <c r="D24" t="n">
-        <v>28.40203391462872</v>
+        <v>291.4134574774874</v>
       </c>
       <c r="E24" t="n">
-        <v>28.40203391462872</v>
+        <v>154.9669665883751</v>
       </c>
       <c r="F24" t="n">
-        <v>28.40203391462872</v>
+        <v>154.9669665883751</v>
       </c>
       <c r="G24" t="n">
-        <v>28.40203391462872</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="H24" t="n">
-        <v>28.40203391462872</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="I24" t="n">
         <v>28.40203391462872</v>
       </c>
       <c r="J24" t="n">
-        <v>58.85704598873464</v>
+        <v>253.592040968462</v>
       </c>
       <c r="K24" t="n">
-        <v>161.7101484975364</v>
+        <v>356.4451434772637</v>
       </c>
       <c r="L24" t="n">
-        <v>452.4844255937219</v>
+        <v>524.8534844124101</v>
       </c>
       <c r="M24" t="n">
-        <v>803.9595952872523</v>
+        <v>733.9600392874257</v>
       </c>
       <c r="N24" t="n">
-        <v>1027.966197649072</v>
+        <v>957.9666416492455</v>
       </c>
       <c r="O24" t="n">
-        <v>1218.44560868897</v>
+        <v>1148.446052689143</v>
       </c>
       <c r="P24" t="n">
-        <v>1358.755635951872</v>
+        <v>1288.756079952046</v>
       </c>
       <c r="Q24" t="n">
-        <v>1420.101695731436</v>
+        <v>1369.890960533467</v>
       </c>
       <c r="R24" t="n">
         <v>1420.101695731436</v>
@@ -6098,22 +6098,22 @@
         <v>1420.101695731436</v>
       </c>
       <c r="T24" t="n">
-        <v>1247.99640410413</v>
+        <v>1335.790723970086</v>
       </c>
       <c r="U24" t="n">
-        <v>1038.012888424346</v>
+        <v>1125.807208290302</v>
       </c>
       <c r="V24" t="n">
-        <v>815.4728867954129</v>
+        <v>903.2672066613688</v>
       </c>
       <c r="W24" t="n">
-        <v>585.3556409286998</v>
+        <v>903.2672066613688</v>
       </c>
       <c r="X24" t="n">
-        <v>396.0485632787115</v>
+        <v>903.2672066613688</v>
       </c>
       <c r="Y24" t="n">
-        <v>330.8525987954979</v>
+        <v>723.9529897368761</v>
       </c>
     </row>
     <row r="25">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>198.6071518486395</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="C25" t="n">
         <v>28.40203391462872</v>
@@ -6150,19 +6150,19 @@
         <v>28.40203391462872</v>
       </c>
       <c r="K25" t="n">
-        <v>60.92665912938518</v>
+        <v>60.92665912938517</v>
       </c>
       <c r="L25" t="n">
-        <v>199.1041697847382</v>
+        <v>372.9116791349494</v>
       </c>
       <c r="M25" t="n">
-        <v>541.2906243375071</v>
+        <v>715.0981336877182</v>
       </c>
       <c r="N25" t="n">
-        <v>876.6683028690215</v>
+        <v>1050.475812219233</v>
       </c>
       <c r="O25" t="n">
-        <v>1179.943361355555</v>
+        <v>1353.750870705766</v>
       </c>
       <c r="P25" t="n">
         <v>1420.101695731436</v>
@@ -6174,25 +6174,25 @@
         <v>1420.101695731436</v>
       </c>
       <c r="S25" t="n">
-        <v>1357.774477002013</v>
+        <v>1234.969214125111</v>
       </c>
       <c r="T25" t="n">
-        <v>1126.390997960664</v>
+        <v>1003.585735083762</v>
       </c>
       <c r="U25" t="n">
-        <v>841.0075539403144</v>
+        <v>718.2022910634131</v>
       </c>
       <c r="V25" t="n">
-        <v>841.0075539403144</v>
+        <v>718.2022910634131</v>
       </c>
       <c r="W25" t="n">
-        <v>841.0075539403144</v>
+        <v>485.5944173150023</v>
       </c>
       <c r="X25" t="n">
-        <v>606.9272317232975</v>
+        <v>251.5140950979854</v>
       </c>
       <c r="Y25" t="n">
-        <v>383.8151705399408</v>
+        <v>28.40203391462872</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>835.9662297820316</v>
+        <v>1164.529935653619</v>
       </c>
       <c r="C26" t="n">
-        <v>835.9662297820316</v>
+        <v>1164.529935653619</v>
       </c>
       <c r="D26" t="n">
-        <v>835.9662297820316</v>
+        <v>1104.23665189299</v>
       </c>
       <c r="E26" t="n">
-        <v>835.9662297820316</v>
+        <v>745.6251125668693</v>
       </c>
       <c r="F26" t="n">
-        <v>687.9297016151863</v>
+        <v>387.013573240749</v>
       </c>
       <c r="G26" t="n">
-        <v>329.318162289066</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="H26" t="n">
         <v>28.40203391462872</v>
@@ -6229,16 +6229,16 @@
         <v>100.0727921248347</v>
       </c>
       <c r="K26" t="n">
-        <v>240.4687168143664</v>
+        <v>240.4687168143662</v>
       </c>
       <c r="L26" t="n">
-        <v>438.6284212562738</v>
+        <v>438.6284212562733</v>
       </c>
       <c r="M26" t="n">
-        <v>679.7044080739728</v>
+        <v>679.7044080739723</v>
       </c>
       <c r="N26" t="n">
-        <v>927.6802318418081</v>
+        <v>927.6802318418077</v>
       </c>
       <c r="O26" t="n">
         <v>1153.168850648442</v>
@@ -6253,25 +6253,25 @@
         <v>1420.101695731436</v>
       </c>
       <c r="S26" t="n">
-        <v>1305.136168151662</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T26" t="n">
-        <v>1091.537989859848</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="U26" t="n">
-        <v>835.9662297820316</v>
+        <v>1164.529935653619</v>
       </c>
       <c r="V26" t="n">
-        <v>835.9662297820316</v>
+        <v>1164.529935653619</v>
       </c>
       <c r="W26" t="n">
-        <v>835.9662297820316</v>
+        <v>1164.529935653619</v>
       </c>
       <c r="X26" t="n">
-        <v>835.9662297820316</v>
+        <v>1164.529935653619</v>
       </c>
       <c r="Y26" t="n">
-        <v>835.9662297820316</v>
+        <v>1164.529935653619</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>28.40203391462872</v>
+        <v>560.1419705236708</v>
       </c>
       <c r="C27" t="n">
-        <v>28.40203391462872</v>
+        <v>409.487740083763</v>
       </c>
       <c r="D27" t="n">
-        <v>28.40203391462872</v>
+        <v>279.3987727052433</v>
       </c>
       <c r="E27" t="n">
-        <v>28.40203391462872</v>
+        <v>279.3987727052433</v>
       </c>
       <c r="F27" t="n">
-        <v>28.40203391462872</v>
+        <v>154.9669665883751</v>
       </c>
       <c r="G27" t="n">
-        <v>28.40203391462872</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="H27" t="n">
-        <v>28.40203391462872</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="I27" t="n">
         <v>28.40203391462872</v>
       </c>
       <c r="J27" t="n">
-        <v>58.85704598873464</v>
+        <v>253.592040968462</v>
       </c>
       <c r="K27" t="n">
-        <v>161.7101484975364</v>
+        <v>356.4451434772637</v>
       </c>
       <c r="L27" t="n">
-        <v>330.1184894326827</v>
+        <v>524.8534844124101</v>
       </c>
       <c r="M27" t="n">
-        <v>539.2250443076982</v>
+        <v>733.9600392874257</v>
       </c>
       <c r="N27" t="n">
-        <v>763.2316466695179</v>
+        <v>957.9666416492455</v>
       </c>
       <c r="O27" t="n">
-        <v>953.7110577094159</v>
+        <v>1148.446052689143</v>
       </c>
       <c r="P27" t="n">
-        <v>1094.021084972318</v>
+        <v>1288.756079952046</v>
       </c>
       <c r="Q27" t="n">
-        <v>1369.890960533467</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="R27" t="n">
         <v>1420.101695731436</v>
@@ -6338,19 +6338,19 @@
         <v>1135.547264475142</v>
       </c>
       <c r="U27" t="n">
-        <v>925.5637487953577</v>
+        <v>1135.547264475142</v>
       </c>
       <c r="V27" t="n">
-        <v>703.0237471664248</v>
+        <v>1135.547264475142</v>
       </c>
       <c r="W27" t="n">
-        <v>472.9065012997116</v>
+        <v>905.4300186084286</v>
       </c>
       <c r="X27" t="n">
-        <v>283.5994236497233</v>
+        <v>891.2525218891249</v>
       </c>
       <c r="Y27" t="n">
-        <v>180.1983683555901</v>
+        <v>711.9383049646322</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>777.7012936397614</v>
+        <v>351.2744923872517</v>
       </c>
       <c r="C28" t="n">
-        <v>607.4961757057506</v>
+        <v>351.2744923872517</v>
       </c>
       <c r="D28" t="n">
-        <v>508.526126217591</v>
+        <v>195.6413792897665</v>
       </c>
       <c r="E28" t="n">
-        <v>352.9673140767935</v>
+        <v>195.6413792897665</v>
       </c>
       <c r="F28" t="n">
         <v>195.6413792897665</v>
@@ -6390,16 +6390,16 @@
         <v>60.92665912938518</v>
       </c>
       <c r="L28" t="n">
-        <v>372.9116791349495</v>
+        <v>199.1041697847382</v>
       </c>
       <c r="M28" t="n">
-        <v>715.0981336877184</v>
+        <v>541.2906243375071</v>
       </c>
       <c r="N28" t="n">
-        <v>1050.475812219233</v>
+        <v>876.6683028690215</v>
       </c>
       <c r="O28" t="n">
-        <v>1353.750870705766</v>
+        <v>1179.943361355555</v>
       </c>
       <c r="P28" t="n">
         <v>1420.101695731436</v>
@@ -6420,16 +6420,16 @@
         <v>1420.101695731436</v>
       </c>
       <c r="V28" t="n">
-        <v>1420.101695731436</v>
+        <v>1277.005296547749</v>
       </c>
       <c r="W28" t="n">
-        <v>1420.101695731436</v>
+        <v>993.6748944789266</v>
       </c>
       <c r="X28" t="n">
-        <v>1186.021373514419</v>
+        <v>759.5945722619097</v>
       </c>
       <c r="Y28" t="n">
-        <v>962.9093123310627</v>
+        <v>536.482511078553</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1305.136168151662</v>
+        <v>1061.490156405315</v>
       </c>
       <c r="C29" t="n">
-        <v>1305.136168151662</v>
+        <v>745.6251125668691</v>
       </c>
       <c r="D29" t="n">
-        <v>1305.136168151662</v>
+        <v>745.6251125668691</v>
       </c>
       <c r="E29" t="n">
-        <v>946.5246288255419</v>
+        <v>387.0135732407489</v>
       </c>
       <c r="F29" t="n">
-        <v>587.9130894994216</v>
+        <v>387.0135732407489</v>
       </c>
       <c r="G29" t="n">
-        <v>329.318162289066</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="H29" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="I29" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="J29" t="n">
         <v>100.0727921248347</v>
@@ -6469,13 +6469,13 @@
         <v>240.4687168143664</v>
       </c>
       <c r="L29" t="n">
-        <v>438.6284212562738</v>
+        <v>438.6284212562733</v>
       </c>
       <c r="M29" t="n">
-        <v>679.7044080739728</v>
+        <v>679.7044080739722</v>
       </c>
       <c r="N29" t="n">
-        <v>927.6802318418081</v>
+        <v>927.6802318418075</v>
       </c>
       <c r="O29" t="n">
         <v>1153.168850648442</v>
@@ -6484,31 +6484,31 @@
         <v>1323.192519378011</v>
       </c>
       <c r="Q29" t="n">
-        <v>1419.560928496659</v>
+        <v>1419.560928496658</v>
       </c>
       <c r="R29" t="n">
         <v>1420.101695731436</v>
       </c>
       <c r="S29" t="n">
-        <v>1305.136168151662</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T29" t="n">
-        <v>1305.136168151662</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="U29" t="n">
-        <v>1305.136168151662</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="V29" t="n">
-        <v>1305.136168151662</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="W29" t="n">
-        <v>1305.136168151662</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="X29" t="n">
-        <v>1305.136168151662</v>
+        <v>1061.490156405315</v>
       </c>
       <c r="Y29" t="n">
-        <v>1305.136168151662</v>
+        <v>1061.490156405315</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>321.1101668587503</v>
+        <v>179.0562643545365</v>
       </c>
       <c r="C30" t="n">
-        <v>170.4559364188425</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="D30" t="n">
-        <v>40.36696904032283</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="E30" t="n">
-        <v>40.36696904032283</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="F30" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="G30" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="H30" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="I30" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="J30" t="n">
-        <v>58.85704598873464</v>
+        <v>253.592040968462</v>
       </c>
       <c r="K30" t="n">
-        <v>161.7101484975364</v>
+        <v>356.4451434772637</v>
       </c>
       <c r="L30" t="n">
-        <v>330.1184894326827</v>
+        <v>524.8534844124101</v>
       </c>
       <c r="M30" t="n">
-        <v>681.5936591262132</v>
+        <v>733.9600392874257</v>
       </c>
       <c r="N30" t="n">
-        <v>905.6002614880329</v>
+        <v>957.9666416492455</v>
       </c>
       <c r="O30" t="n">
-        <v>1218.44560868897</v>
+        <v>1148.446052689143</v>
       </c>
       <c r="P30" t="n">
-        <v>1358.755635951872</v>
+        <v>1288.756079952046</v>
       </c>
       <c r="Q30" t="n">
-        <v>1420.101695731436</v>
+        <v>1369.890960533467</v>
       </c>
       <c r="R30" t="n">
         <v>1420.101695731436</v>
       </c>
       <c r="S30" t="n">
-        <v>1307.652556102448</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T30" t="n">
-        <v>1135.547264475142</v>
+        <v>1362.114656545409</v>
       </c>
       <c r="U30" t="n">
-        <v>925.5637487953577</v>
+        <v>1152.131140865625</v>
       </c>
       <c r="V30" t="n">
-        <v>703.0237471664248</v>
+        <v>929.591139236692</v>
       </c>
       <c r="W30" t="n">
-        <v>472.9065012997116</v>
+        <v>699.4738933699789</v>
       </c>
       <c r="X30" t="n">
-        <v>472.9065012997116</v>
+        <v>510.1668157199906</v>
       </c>
       <c r="Y30" t="n">
-        <v>472.9065012997116</v>
+        <v>330.8525987954978</v>
       </c>
     </row>
     <row r="31">
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>28.40203391462872</v>
+        <v>462.5474056937562</v>
       </c>
       <c r="C31" t="n">
-        <v>28.40203391462872</v>
+        <v>292.3422877597454</v>
       </c>
       <c r="D31" t="n">
-        <v>28.40203391462872</v>
+        <v>136.7091746622602</v>
       </c>
       <c r="E31" t="n">
-        <v>28.40203391462872</v>
+        <v>136.7091746622602</v>
       </c>
       <c r="F31" t="n">
-        <v>28.40203391462872</v>
+        <v>136.7091746622602</v>
       </c>
       <c r="G31" t="n">
-        <v>28.40203391462872</v>
+        <v>130.9814065313828</v>
       </c>
       <c r="H31" t="n">
-        <v>28.40203391462872</v>
+        <v>130.9814065313828</v>
       </c>
       <c r="I31" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="J31" t="n">
-        <v>68.9405601984883</v>
+        <v>68.94056019848828</v>
       </c>
       <c r="K31" t="n">
-        <v>101.4651854132448</v>
+        <v>101.4651854132447</v>
       </c>
       <c r="L31" t="n">
-        <v>199.1041697847382</v>
+        <v>413.450205418809</v>
       </c>
       <c r="M31" t="n">
-        <v>541.2906243375071</v>
+        <v>755.636659971578</v>
       </c>
       <c r="N31" t="n">
-        <v>876.6683028690215</v>
+        <v>825.6590566085057</v>
       </c>
       <c r="O31" t="n">
-        <v>1179.943361355555</v>
+        <v>1093.244026157469</v>
       </c>
       <c r="P31" t="n">
-        <v>1420.101695731436</v>
+        <v>1333.40236053335</v>
       </c>
       <c r="Q31" t="n">
         <v>1420.101695731436</v>
@@ -6648,25 +6648,25 @@
         <v>1420.101695731436</v>
       </c>
       <c r="S31" t="n">
-        <v>1420.101695731436</v>
+        <v>1234.969214125111</v>
       </c>
       <c r="T31" t="n">
-        <v>1188.718216690087</v>
+        <v>1234.969214125111</v>
       </c>
       <c r="U31" t="n">
-        <v>1188.718216690087</v>
+        <v>1234.969214125111</v>
       </c>
       <c r="V31" t="n">
-        <v>922.7388715109113</v>
+        <v>968.9898689459352</v>
       </c>
       <c r="W31" t="n">
-        <v>639.408469442089</v>
+        <v>685.6594668771129</v>
       </c>
       <c r="X31" t="n">
-        <v>405.328147225072</v>
+        <v>685.6594668771129</v>
       </c>
       <c r="Y31" t="n">
-        <v>182.2160860417154</v>
+        <v>462.5474056937562</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>835.9662297820316</v>
+        <v>477.3546904559113</v>
       </c>
       <c r="C32" t="n">
-        <v>835.9662297820316</v>
+        <v>438.1403630219691</v>
       </c>
       <c r="D32" t="n">
-        <v>835.9662297820316</v>
+        <v>438.1403630219691</v>
       </c>
       <c r="E32" t="n">
-        <v>835.9662297820316</v>
+        <v>79.52882369584879</v>
       </c>
       <c r="F32" t="n">
-        <v>739.0564913964065</v>
+        <v>79.52882369584879</v>
       </c>
       <c r="G32" t="n">
-        <v>380.4449520702861</v>
+        <v>79.52882369584879</v>
       </c>
       <c r="H32" t="n">
         <v>79.52882369584879</v>
@@ -6703,16 +6703,16 @@
         <v>100.0727921248347</v>
       </c>
       <c r="K32" t="n">
-        <v>240.4687168143664</v>
+        <v>240.4687168143663</v>
       </c>
       <c r="L32" t="n">
         <v>438.6284212562733</v>
       </c>
       <c r="M32" t="n">
-        <v>679.7044080739723</v>
+        <v>679.7044080739722</v>
       </c>
       <c r="N32" t="n">
-        <v>927.6802318418081</v>
+        <v>927.6802318418075</v>
       </c>
       <c r="O32" t="n">
         <v>1153.168850648442</v>
@@ -6745,7 +6745,7 @@
         <v>835.9662297820316</v>
       </c>
       <c r="Y32" t="n">
-        <v>835.9662297820316</v>
+        <v>477.3546904559113</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>447.6500162580571</v>
+        <v>323.2182101411889</v>
       </c>
       <c r="C33" t="n">
-        <v>296.9957858181493</v>
+        <v>172.5639797012811</v>
       </c>
       <c r="D33" t="n">
-        <v>296.9957858181493</v>
+        <v>172.5639797012811</v>
       </c>
       <c r="E33" t="n">
-        <v>160.549294929037</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="F33" t="n">
         <v>36.11748881216884</v>
@@ -6779,28 +6779,28 @@
         <v>28.40203391462872</v>
       </c>
       <c r="J33" t="n">
-        <v>253.592040968462</v>
+        <v>58.85704598873464</v>
       </c>
       <c r="K33" t="n">
-        <v>356.4451434772637</v>
+        <v>161.7101484975364</v>
       </c>
       <c r="L33" t="n">
-        <v>524.8534844124101</v>
+        <v>330.1184894326827</v>
       </c>
       <c r="M33" t="n">
-        <v>733.9600392874257</v>
+        <v>539.2250443076982</v>
       </c>
       <c r="N33" t="n">
-        <v>957.9666416492455</v>
+        <v>763.2316466695179</v>
       </c>
       <c r="O33" t="n">
-        <v>1148.446052689143</v>
+        <v>953.7110577094159</v>
       </c>
       <c r="P33" t="n">
-        <v>1308.544900753903</v>
+        <v>1094.021084972318</v>
       </c>
       <c r="Q33" t="n">
-        <v>1369.890960533467</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="R33" t="n">
         <v>1420.101695731436</v>
@@ -6809,22 +6809,22 @@
         <v>1307.652556102448</v>
       </c>
       <c r="T33" t="n">
-        <v>1135.547264475142</v>
+        <v>1307.652556102448</v>
       </c>
       <c r="U33" t="n">
-        <v>968.0676452734995</v>
+        <v>1097.669040422664</v>
       </c>
       <c r="V33" t="n">
-        <v>968.0676452734995</v>
+        <v>875.1290387937311</v>
       </c>
       <c r="W33" t="n">
-        <v>968.0676452734995</v>
+        <v>843.6358391566314</v>
       </c>
       <c r="X33" t="n">
-        <v>778.7605676235112</v>
+        <v>654.3287615066431</v>
       </c>
       <c r="Y33" t="n">
-        <v>599.4463506990185</v>
+        <v>475.0145445821503</v>
       </c>
     </row>
     <row r="34">
@@ -6864,43 +6864,43 @@
         <v>101.4651854132448</v>
       </c>
       <c r="L34" t="n">
-        <v>199.1041697847382</v>
+        <v>413.450205418809</v>
       </c>
       <c r="M34" t="n">
-        <v>541.2906243375071</v>
+        <v>479.9463396630301</v>
       </c>
       <c r="N34" t="n">
-        <v>876.6683028690215</v>
+        <v>815.3240181945446</v>
       </c>
       <c r="O34" t="n">
-        <v>1179.943361355555</v>
+        <v>1093.244026157469</v>
       </c>
       <c r="P34" t="n">
-        <v>1420.101695731436</v>
+        <v>1333.40236053335</v>
       </c>
       <c r="Q34" t="n">
         <v>1420.101695731436</v>
       </c>
       <c r="R34" t="n">
-        <v>1341.825691515932</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S34" t="n">
-        <v>1156.693209909607</v>
+        <v>1234.969214125111</v>
       </c>
       <c r="T34" t="n">
-        <v>925.309730868258</v>
+        <v>1003.585735083762</v>
       </c>
       <c r="U34" t="n">
-        <v>639.926286847909</v>
+        <v>768.9248193838246</v>
       </c>
       <c r="V34" t="n">
-        <v>373.9469416687332</v>
+        <v>768.9248193838246</v>
       </c>
       <c r="W34" t="n">
-        <v>262.4823561316456</v>
+        <v>485.5944173150023</v>
       </c>
       <c r="X34" t="n">
-        <v>28.40203391462872</v>
+        <v>251.5140950979854</v>
       </c>
       <c r="Y34" t="n">
         <v>28.40203391462872</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1104.236651892989</v>
+        <v>805.9183963274991</v>
       </c>
       <c r="C35" t="n">
-        <v>1104.236651892989</v>
+        <v>805.9183963274991</v>
       </c>
       <c r="D35" t="n">
-        <v>1104.236651892989</v>
+        <v>796.7519023480893</v>
       </c>
       <c r="E35" t="n">
-        <v>745.6251125668689</v>
+        <v>796.7519023480893</v>
       </c>
       <c r="F35" t="n">
-        <v>387.0135732407488</v>
+        <v>438.1403630219691</v>
       </c>
       <c r="G35" t="n">
-        <v>28.40203391462871</v>
+        <v>79.52882369584879</v>
       </c>
       <c r="H35" t="n">
-        <v>28.40203391462871</v>
+        <v>79.52882369584879</v>
       </c>
       <c r="I35" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J35" t="n">
-        <v>100.0727921248347</v>
+        <v>100.0727921248354</v>
       </c>
       <c r="K35" t="n">
-        <v>240.4687168143664</v>
+        <v>240.468716814367</v>
       </c>
       <c r="L35" t="n">
-        <v>438.6284212562734</v>
+        <v>438.628421256274</v>
       </c>
       <c r="M35" t="n">
-        <v>679.7044080739723</v>
+        <v>679.7044080739729</v>
       </c>
       <c r="N35" t="n">
-        <v>927.6802318418074</v>
+        <v>927.6802318418082</v>
       </c>
       <c r="O35" t="n">
-        <v>1153.168850648441</v>
+        <v>1153.168850648442</v>
       </c>
       <c r="P35" t="n">
         <v>1323.192519378011</v>
       </c>
       <c r="Q35" t="n">
-        <v>1419.560928496658</v>
+        <v>1419.560928496659</v>
       </c>
       <c r="R35" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S35" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T35" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="U35" t="n">
-        <v>1420.101695731435</v>
+        <v>1164.529935653619</v>
       </c>
       <c r="V35" t="n">
-        <v>1420.101695731435</v>
+        <v>1164.529935653619</v>
       </c>
       <c r="W35" t="n">
-        <v>1104.236651892989</v>
+        <v>1164.529935653619</v>
       </c>
       <c r="X35" t="n">
-        <v>1104.236651892989</v>
+        <v>1164.529935653619</v>
       </c>
       <c r="Y35" t="n">
-        <v>1104.236651892989</v>
+        <v>805.9183963274991</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>773.1965400290754</v>
+        <v>104.2852067252305</v>
       </c>
       <c r="C36" t="n">
-        <v>622.5423095891676</v>
+        <v>104.2852067252305</v>
       </c>
       <c r="D36" t="n">
-        <v>492.453342210648</v>
+        <v>104.2852067252305</v>
       </c>
       <c r="E36" t="n">
-        <v>356.0068513215357</v>
+        <v>104.2852067252305</v>
       </c>
       <c r="F36" t="n">
-        <v>231.5750452046675</v>
+        <v>104.2852067252305</v>
       </c>
       <c r="G36" t="n">
-        <v>112.7255674284612</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="H36" t="n">
-        <v>36.11748881216883</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="I36" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J36" t="n">
-        <v>58.85704598873463</v>
+        <v>58.85704598873464</v>
       </c>
       <c r="K36" t="n">
-        <v>376.233964279121</v>
+        <v>410.3322156822651</v>
       </c>
       <c r="L36" t="n">
-        <v>544.6423052142674</v>
+        <v>578.7405566174114</v>
       </c>
       <c r="M36" t="n">
-        <v>753.748860089283</v>
+        <v>787.847111492427</v>
       </c>
       <c r="N36" t="n">
-        <v>977.7554624511026</v>
+        <v>1011.853713854247</v>
       </c>
       <c r="O36" t="n">
-        <v>1168.234873491001</v>
+        <v>1202.333124894145</v>
       </c>
       <c r="P36" t="n">
-        <v>1308.544900753903</v>
+        <v>1342.643152157047</v>
       </c>
       <c r="Q36" t="n">
-        <v>1369.890960533467</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="R36" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S36" t="n">
-        <v>1420.101695731435</v>
+        <v>1307.652556102448</v>
       </c>
       <c r="T36" t="n">
-        <v>1420.101695731435</v>
+        <v>1135.547264475142</v>
       </c>
       <c r="U36" t="n">
-        <v>1420.101695731435</v>
+        <v>925.5637487953577</v>
       </c>
       <c r="V36" t="n">
-        <v>1420.101695731435</v>
+        <v>703.0237471664248</v>
       </c>
       <c r="W36" t="n">
-        <v>1293.614169044518</v>
+        <v>472.9065012997116</v>
       </c>
       <c r="X36" t="n">
-        <v>1104.30709139453</v>
+        <v>283.5994236497233</v>
       </c>
       <c r="Y36" t="n">
-        <v>924.9928744700368</v>
+        <v>104.2852067252305</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.40203391462871</v>
+        <v>506.8333045280493</v>
       </c>
       <c r="C37" t="n">
-        <v>28.40203391462871</v>
+        <v>506.8333045280493</v>
       </c>
       <c r="D37" t="n">
-        <v>28.40203391462871</v>
+        <v>351.200191430564</v>
       </c>
       <c r="E37" t="n">
-        <v>28.40203391462871</v>
+        <v>195.6413792897665</v>
       </c>
       <c r="F37" t="n">
-        <v>28.40203391462871</v>
+        <v>195.6413792897665</v>
       </c>
       <c r="G37" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="H37" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="I37" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J37" t="n">
-        <v>28.40203391462871</v>
+        <v>68.9405601984883</v>
       </c>
       <c r="K37" t="n">
-        <v>60.92665912938516</v>
+        <v>101.4651854132448</v>
       </c>
       <c r="L37" t="n">
-        <v>372.9116791349494</v>
+        <v>162.5242763580324</v>
       </c>
       <c r="M37" t="n">
-        <v>715.0981336877182</v>
+        <v>504.7107309108013</v>
       </c>
       <c r="N37" t="n">
-        <v>1050.475812219233</v>
+        <v>840.0884094423158</v>
       </c>
       <c r="O37" t="n">
-        <v>1353.750870705766</v>
+        <v>1093.244026157469</v>
       </c>
       <c r="P37" t="n">
-        <v>1385.405068699442</v>
+        <v>1333.40236053335</v>
       </c>
       <c r="Q37" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="R37" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S37" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T37" t="n">
-        <v>1188.718216690087</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="U37" t="n">
-        <v>903.3347726697375</v>
+        <v>1134.718251711087</v>
       </c>
       <c r="V37" t="n">
-        <v>637.3554274905617</v>
+        <v>868.7389065319113</v>
       </c>
       <c r="W37" t="n">
-        <v>637.3554274905617</v>
+        <v>692.0413232193505</v>
       </c>
       <c r="X37" t="n">
-        <v>436.7221137892866</v>
+        <v>692.0413232193505</v>
       </c>
       <c r="Y37" t="n">
-        <v>213.61005260593</v>
+        <v>692.0413232193505</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1104.236651892989</v>
+        <v>1061.490156405316</v>
       </c>
       <c r="C38" t="n">
-        <v>1104.236651892989</v>
+        <v>796.7519023480893</v>
       </c>
       <c r="D38" t="n">
-        <v>1104.236651892989</v>
+        <v>796.7519023480893</v>
       </c>
       <c r="E38" t="n">
-        <v>745.6251125668689</v>
+        <v>438.1403630219691</v>
       </c>
       <c r="F38" t="n">
-        <v>387.0135732407488</v>
+        <v>438.1403630219691</v>
       </c>
       <c r="G38" t="n">
-        <v>28.40203391462871</v>
+        <v>79.52882369584879</v>
       </c>
       <c r="H38" t="n">
-        <v>28.40203391462871</v>
+        <v>79.52882369584879</v>
       </c>
       <c r="I38" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J38" t="n">
-        <v>100.0727921248346</v>
+        <v>100.0727921248345</v>
       </c>
       <c r="K38" t="n">
-        <v>240.4687168143662</v>
+        <v>240.468716814366</v>
       </c>
       <c r="L38" t="n">
-        <v>438.6284212562731</v>
+        <v>438.6284212562729</v>
       </c>
       <c r="M38" t="n">
-        <v>679.704408073972</v>
+        <v>679.7044080739719</v>
       </c>
       <c r="N38" t="n">
         <v>927.6802318418072</v>
@@ -7192,34 +7192,34 @@
         <v>1153.168850648441</v>
       </c>
       <c r="P38" t="n">
-        <v>1323.192519378011</v>
+        <v>1323.19251937801</v>
       </c>
       <c r="Q38" t="n">
-        <v>1419.560928496658</v>
+        <v>1419.560928496659</v>
       </c>
       <c r="R38" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S38" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T38" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="U38" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="V38" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="W38" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="X38" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="Y38" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>773.1965400290754</v>
+        <v>467.1605494072769</v>
       </c>
       <c r="C39" t="n">
-        <v>622.5423095891676</v>
+        <v>316.5063189673691</v>
       </c>
       <c r="D39" t="n">
-        <v>492.453342210648</v>
+        <v>186.4173515888494</v>
       </c>
       <c r="E39" t="n">
-        <v>356.0068513215357</v>
+        <v>49.97086069973716</v>
       </c>
       <c r="F39" t="n">
-        <v>231.5750452046675</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="G39" t="n">
-        <v>112.7255674284613</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="H39" t="n">
         <v>36.11748881216884</v>
       </c>
       <c r="I39" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J39" t="n">
-        <v>58.8570459887346</v>
+        <v>253.592040968462</v>
       </c>
       <c r="K39" t="n">
-        <v>161.7101484975363</v>
+        <v>356.4451434772637</v>
       </c>
       <c r="L39" t="n">
-        <v>417.1737378825568</v>
+        <v>524.8534844124101</v>
       </c>
       <c r="M39" t="n">
-        <v>626.2802927575724</v>
+        <v>733.9600392874257</v>
       </c>
       <c r="N39" t="n">
-        <v>977.7554624511026</v>
+        <v>957.9666416492455</v>
       </c>
       <c r="O39" t="n">
-        <v>1168.234873491001</v>
+        <v>1148.446052689143</v>
       </c>
       <c r="P39" t="n">
-        <v>1308.544900753903</v>
+        <v>1288.756079952046</v>
       </c>
       <c r="Q39" t="n">
-        <v>1369.890960533467</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="R39" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S39" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T39" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="U39" t="n">
-        <v>1420.101695731435</v>
+        <v>1210.118180051652</v>
       </c>
       <c r="V39" t="n">
-        <v>1420.101695731435</v>
+        <v>987.5781784227192</v>
       </c>
       <c r="W39" t="n">
-        <v>1293.614169044518</v>
+        <v>987.5781784227192</v>
       </c>
       <c r="X39" t="n">
-        <v>1104.30709139453</v>
+        <v>798.271100772731</v>
       </c>
       <c r="Y39" t="n">
-        <v>924.9928744700368</v>
+        <v>618.9568838482382</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.5632749713118</v>
+        <v>354.0250254217398</v>
       </c>
       <c r="C40" t="n">
-        <v>781.358157037301</v>
+        <v>354.0250254217398</v>
       </c>
       <c r="D40" t="n">
-        <v>625.7250439398158</v>
+        <v>198.3919123242546</v>
       </c>
       <c r="E40" t="n">
-        <v>470.1662317990183</v>
+        <v>198.3919123242546</v>
       </c>
       <c r="F40" t="n">
-        <v>312.8402970119913</v>
+        <v>198.3919123242546</v>
       </c>
       <c r="G40" t="n">
-        <v>145.6009516368535</v>
+        <v>31.15256694911682</v>
       </c>
       <c r="H40" t="n">
-        <v>28.40203391462871</v>
+        <v>31.15256694911682</v>
       </c>
       <c r="I40" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J40" t="n">
-        <v>68.94056019848827</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="K40" t="n">
-        <v>101.4651854132447</v>
+        <v>162.8094700877218</v>
       </c>
       <c r="L40" t="n">
-        <v>413.4502054188089</v>
+        <v>474.794490093286</v>
       </c>
       <c r="M40" t="n">
-        <v>479.94633966303</v>
+        <v>541.2906243375071</v>
       </c>
       <c r="N40" t="n">
-        <v>815.3240181945445</v>
+        <v>876.6683028690215</v>
       </c>
       <c r="O40" t="n">
-        <v>1118.599076681078</v>
+        <v>1179.943361355555</v>
       </c>
       <c r="P40" t="n">
-        <v>1333.40236053335</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="Q40" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="R40" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S40" t="n">
-        <v>1420.101695731435</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T40" t="n">
-        <v>1420.101695731435</v>
+        <v>1188.718216690087</v>
       </c>
       <c r="U40" t="n">
-        <v>1420.101695731435</v>
+        <v>903.334772669738</v>
       </c>
       <c r="V40" t="n">
-        <v>1420.101695731435</v>
+        <v>637.3554274905622</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.771293662613</v>
+        <v>354.0250254217398</v>
       </c>
       <c r="X40" t="n">
-        <v>1136.771293662613</v>
+        <v>354.0250254217398</v>
       </c>
       <c r="Y40" t="n">
-        <v>1136.771293662613</v>
+        <v>354.0250254217398</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>28.40203391462871</v>
+        <v>805.9183963274991</v>
       </c>
       <c r="C41" t="n">
-        <v>28.40203391462871</v>
+        <v>805.9183963274991</v>
       </c>
       <c r="D41" t="n">
-        <v>28.40203391462871</v>
+        <v>796.7519023480893</v>
       </c>
       <c r="E41" t="n">
-        <v>28.40203391462871</v>
+        <v>796.7519023480893</v>
       </c>
       <c r="F41" t="n">
-        <v>28.40203391462871</v>
+        <v>438.1403630219691</v>
       </c>
       <c r="G41" t="n">
-        <v>28.40203391462871</v>
+        <v>79.52882369584879</v>
       </c>
       <c r="H41" t="n">
-        <v>28.40203391462871</v>
+        <v>79.52882369584879</v>
       </c>
       <c r="I41" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0727921248354</v>
+        <v>100.0727921248347</v>
       </c>
       <c r="K41" t="n">
-        <v>240.4687168143673</v>
+        <v>240.4687168143662</v>
       </c>
       <c r="L41" t="n">
-        <v>438.6284212562741</v>
+        <v>438.6284212562733</v>
       </c>
       <c r="M41" t="n">
-        <v>679.7044080739724</v>
+        <v>679.7044080739723</v>
       </c>
       <c r="N41" t="n">
         <v>927.6802318418077</v>
@@ -7432,31 +7432,31 @@
         <v>1323.192519378011</v>
       </c>
       <c r="Q41" t="n">
-        <v>1419.560928496658</v>
+        <v>1419.560928496659</v>
       </c>
       <c r="R41" t="n">
         <v>1420.101695731436</v>
       </c>
       <c r="S41" t="n">
-        <v>1305.136168151662</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T41" t="n">
-        <v>1091.537989859848</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="U41" t="n">
-        <v>835.9662297820312</v>
+        <v>1164.529935653619</v>
       </c>
       <c r="V41" t="n">
-        <v>493.8594204855495</v>
+        <v>1164.529935653619</v>
       </c>
       <c r="W41" t="n">
-        <v>387.0135732407489</v>
+        <v>1164.529935653619</v>
       </c>
       <c r="X41" t="n">
-        <v>387.0135732407489</v>
+        <v>1164.529935653619</v>
       </c>
       <c r="Y41" t="n">
-        <v>28.40203391462871</v>
+        <v>1164.529935653619</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>492.453342210648</v>
+        <v>570.0235287390367</v>
       </c>
       <c r="C42" t="n">
-        <v>492.453342210648</v>
+        <v>419.3692982991289</v>
       </c>
       <c r="D42" t="n">
-        <v>492.453342210648</v>
+        <v>289.2803309206092</v>
       </c>
       <c r="E42" t="n">
-        <v>356.0068513215357</v>
+        <v>152.8338400314969</v>
       </c>
       <c r="F42" t="n">
-        <v>231.5750452046675</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="G42" t="n">
-        <v>112.7255674284613</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="H42" t="n">
-        <v>36.11748881216884</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="I42" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J42" t="n">
-        <v>58.8570459887346</v>
+        <v>58.85704598873464</v>
       </c>
       <c r="K42" t="n">
-        <v>161.7101484975363</v>
+        <v>161.7101484975364</v>
       </c>
       <c r="L42" t="n">
-        <v>330.1184894326825</v>
+        <v>330.1184894326827</v>
       </c>
       <c r="M42" t="n">
-        <v>539.225044307698</v>
+        <v>539.2250443076982</v>
       </c>
       <c r="N42" t="n">
-        <v>763.2316466695177</v>
+        <v>763.2316466695179</v>
       </c>
       <c r="O42" t="n">
-        <v>953.7110577094156</v>
+        <v>953.7110577094159</v>
       </c>
       <c r="P42" t="n">
         <v>1094.021084972318</v>
       </c>
       <c r="Q42" t="n">
-        <v>1420.101695731436</v>
+        <v>1369.890960533467</v>
       </c>
       <c r="R42" t="n">
         <v>1420.101695731436</v>
@@ -7520,22 +7520,22 @@
         <v>1307.652556102448</v>
       </c>
       <c r="T42" t="n">
-        <v>1135.547264475141</v>
+        <v>1135.547264475142</v>
       </c>
       <c r="U42" t="n">
-        <v>945.1105897062941</v>
+        <v>925.5637487953577</v>
       </c>
       <c r="V42" t="n">
-        <v>722.5705880773612</v>
+        <v>925.5637487953577</v>
       </c>
       <c r="W42" t="n">
-        <v>492.453342210648</v>
+        <v>925.5637487953577</v>
       </c>
       <c r="X42" t="n">
-        <v>492.453342210648</v>
+        <v>749.3377456635294</v>
       </c>
       <c r="Y42" t="n">
-        <v>492.453342210648</v>
+        <v>570.0235287390367</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.40203391462871</v>
+        <v>195.6413792897665</v>
       </c>
       <c r="C43" t="n">
-        <v>28.40203391462871</v>
+        <v>195.6413792897665</v>
       </c>
       <c r="D43" t="n">
-        <v>28.40203391462871</v>
+        <v>195.6413792897665</v>
       </c>
       <c r="E43" t="n">
-        <v>28.40203391462871</v>
+        <v>195.6413792897665</v>
       </c>
       <c r="F43" t="n">
-        <v>28.40203391462871</v>
+        <v>195.6413792897665</v>
       </c>
       <c r="G43" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="H43" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="I43" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J43" t="n">
-        <v>68.94056019848827</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="K43" t="n">
-        <v>266.3202581559261</v>
+        <v>60.92665912938518</v>
       </c>
       <c r="L43" t="n">
-        <v>364.2063841221209</v>
+        <v>372.9116791349495</v>
       </c>
       <c r="M43" t="n">
-        <v>706.3928386748898</v>
+        <v>715.0981336877184</v>
       </c>
       <c r="N43" t="n">
-        <v>1041.770517206404</v>
+        <v>1050.475812219233</v>
       </c>
       <c r="O43" t="n">
-        <v>1093.244026157469</v>
+        <v>1353.750870705766</v>
       </c>
       <c r="P43" t="n">
-        <v>1333.40236053335</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="Q43" t="n">
         <v>1420.101695731436</v>
       </c>
       <c r="R43" t="n">
-        <v>1341.825691515931</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S43" t="n">
-        <v>1156.693209909607</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T43" t="n">
-        <v>1097.175547399993</v>
+        <v>1188.718216690087</v>
       </c>
       <c r="U43" t="n">
-        <v>811.7921033796438</v>
+        <v>903.334772669738</v>
       </c>
       <c r="V43" t="n">
-        <v>545.812758200468</v>
+        <v>652.83376269014</v>
       </c>
       <c r="W43" t="n">
-        <v>262.4823561316456</v>
+        <v>652.83376269014</v>
       </c>
       <c r="X43" t="n">
-        <v>28.40203391462871</v>
+        <v>418.7534404731231</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.40203391462871</v>
+        <v>195.6413792897665</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>28.40203391462871</v>
+        <v>796.7519023480888</v>
       </c>
       <c r="C44" t="n">
-        <v>28.40203391462871</v>
+        <v>438.1403630219688</v>
       </c>
       <c r="D44" t="n">
-        <v>28.40203391462871</v>
+        <v>79.52882369584876</v>
       </c>
       <c r="E44" t="n">
-        <v>28.40203391462871</v>
+        <v>79.52882369584876</v>
       </c>
       <c r="F44" t="n">
-        <v>28.40203391462871</v>
+        <v>79.52882369584876</v>
       </c>
       <c r="G44" t="n">
-        <v>28.40203391462871</v>
+        <v>79.52882369584876</v>
       </c>
       <c r="H44" t="n">
-        <v>28.40203391462871</v>
+        <v>79.52882369584876</v>
       </c>
       <c r="I44" t="n">
         <v>28.40203391462871</v>
       </c>
       <c r="J44" t="n">
-        <v>100.072792124835</v>
+        <v>100.0727921248347</v>
       </c>
       <c r="K44" t="n">
-        <v>240.4687168143667</v>
+        <v>240.4687168143664</v>
       </c>
       <c r="L44" t="n">
-        <v>438.6284212562736</v>
+        <v>438.628421256273</v>
       </c>
       <c r="M44" t="n">
-        <v>679.7044080739724</v>
+        <v>679.7044080739719</v>
       </c>
       <c r="N44" t="n">
-        <v>927.6802318418077</v>
+        <v>927.6802318418072</v>
       </c>
       <c r="O44" t="n">
-        <v>1153.168850648442</v>
+        <v>1153.168850648441</v>
       </c>
       <c r="P44" t="n">
-        <v>1323.192519378011</v>
+        <v>1323.19251937801</v>
       </c>
       <c r="Q44" t="n">
         <v>1419.560928496658</v>
       </c>
       <c r="R44" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="S44" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="T44" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="U44" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="V44" t="n">
-        <v>1077.994886434954</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="W44" t="n">
-        <v>719.3833471088337</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="X44" t="n">
-        <v>360.7718077827136</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="Y44" t="n">
-        <v>28.40203391462871</v>
+        <v>1061.490156405315</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>706.9023370588914</v>
+        <v>396.0485632787108</v>
       </c>
       <c r="C45" t="n">
-        <v>556.2481066189836</v>
+        <v>368.0215360937798</v>
       </c>
       <c r="D45" t="n">
-        <v>426.1591392404639</v>
+        <v>368.0215360937798</v>
       </c>
       <c r="E45" t="n">
-        <v>289.7126483513516</v>
+        <v>231.5750452046675</v>
       </c>
       <c r="F45" t="n">
-        <v>165.2808422344834</v>
+        <v>231.5750452046675</v>
       </c>
       <c r="G45" t="n">
-        <v>46.43136445827716</v>
+        <v>112.7255674284612</v>
       </c>
       <c r="H45" t="n">
-        <v>28.40203391462871</v>
+        <v>36.11748881216883</v>
       </c>
       <c r="I45" t="n">
         <v>28.40203391462871</v>
       </c>
       <c r="J45" t="n">
-        <v>253.592040968462</v>
+        <v>145.9122944386088</v>
       </c>
       <c r="K45" t="n">
-        <v>356.4451434772636</v>
+        <v>248.7653969474105</v>
       </c>
       <c r="L45" t="n">
-        <v>524.8534844124099</v>
+        <v>417.1737378825568</v>
       </c>
       <c r="M45" t="n">
-        <v>733.9600392874254</v>
+        <v>626.2802927575724</v>
       </c>
       <c r="N45" t="n">
-        <v>957.966641649245</v>
+        <v>977.7554624511026</v>
       </c>
       <c r="O45" t="n">
-        <v>1148.446052689143</v>
+        <v>1168.234873491001</v>
       </c>
       <c r="P45" t="n">
         <v>1308.544900753903</v>
@@ -7751,10 +7751,10 @@
         <v>1369.890960533467</v>
       </c>
       <c r="R45" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="S45" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="T45" t="n">
         <v>1247.996404104129</v>
@@ -7763,16 +7763,16 @@
         <v>1038.012888424345</v>
       </c>
       <c r="V45" t="n">
-        <v>1038.012888424345</v>
+        <v>815.4728867954123</v>
       </c>
       <c r="W45" t="n">
-        <v>1038.012888424345</v>
+        <v>585.3556409286991</v>
       </c>
       <c r="X45" t="n">
-        <v>1038.012888424345</v>
+        <v>396.0485632787108</v>
       </c>
       <c r="Y45" t="n">
-        <v>858.6986714998527</v>
+        <v>396.0485632787108</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>936.9437298658411</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="C46" t="n">
-        <v>766.7386119318303</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="D46" t="n">
-        <v>611.1054988343451</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="E46" t="n">
-        <v>455.5466866935475</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="F46" t="n">
-        <v>298.2207519065205</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="G46" t="n">
-        <v>130.9814065313828</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="H46" t="n">
-        <v>130.9814065313828</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="I46" t="n">
         <v>28.40203391462871</v>
       </c>
       <c r="J46" t="n">
-        <v>68.94056019848827</v>
+        <v>28.40203391462871</v>
       </c>
       <c r="K46" t="n">
-        <v>266.3202581559261</v>
+        <v>60.92665912938516</v>
       </c>
       <c r="L46" t="n">
-        <v>578.3052781614904</v>
+        <v>199.1041697847375</v>
       </c>
       <c r="M46" t="n">
-        <v>793.0921738729758</v>
+        <v>541.2906243375064</v>
       </c>
       <c r="N46" t="n">
-        <v>1128.46985240449</v>
+        <v>876.6683028690209</v>
       </c>
       <c r="O46" t="n">
-        <v>1179.943361355555</v>
+        <v>1179.943361355554</v>
       </c>
       <c r="P46" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="Q46" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="R46" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731435</v>
       </c>
       <c r="S46" t="n">
-        <v>1420.101695731436</v>
+        <v>1234.969214125111</v>
       </c>
       <c r="T46" t="n">
-        <v>1420.101695731436</v>
+        <v>1234.969214125111</v>
       </c>
       <c r="U46" t="n">
-        <v>1420.101695731436</v>
+        <v>954.1328380751258</v>
       </c>
       <c r="V46" t="n">
-        <v>1154.12235055226</v>
+        <v>954.1328380751258</v>
       </c>
       <c r="W46" t="n">
-        <v>1154.12235055226</v>
+        <v>670.8024360063035</v>
       </c>
       <c r="X46" t="n">
-        <v>1154.12235055226</v>
+        <v>436.7221137892866</v>
       </c>
       <c r="Y46" t="n">
-        <v>1122.151748557142</v>
+        <v>213.61005260593</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.98870788066409</v>
+        <v>216.6907230117022</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8847,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.52453011611549</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L13" t="n">
-        <v>253.4605344048249</v>
+        <v>61.32909676210734</v>
       </c>
       <c r="M13" t="n">
-        <v>278.4750710187352</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>92.47249751957102</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O13" t="n">
         <v>254.3449995307766</v>
@@ -8868,7 +8868,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.35992901061971</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>70.7066222220467</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>19.98870788066409</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>71.01380490566048</v>
+        <v>20.29589056427803</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.52453011611549</v>
+        <v>11.5245301161155</v>
       </c>
       <c r="K16" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L16" t="n">
-        <v>91.83767036806529</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M16" t="n">
         <v>278.4750710187352</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O16" t="n">
-        <v>254.3449995307766</v>
+        <v>122.8718220452334</v>
       </c>
       <c r="P16" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.9350150692923</v>
+        <v>14.35992901061972</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,22 +9242,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>19.98870788066446</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>143.8066816348635</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>72.88404137683881</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.5245301161155</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L19" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M19" t="n">
-        <v>102.911930260946</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N19" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O19" t="n">
-        <v>254.3449995307766</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>210.6102387699041</v>
+        <v>81.92381569790037</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.35992901061972</v>
+        <v>14.35992901061974</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9488,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>138.6525087351952</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>128.7561286178896</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>267.4086373530844</v>
       </c>
       <c r="R21" t="n">
         <v>20.29589056427803</v>
@@ -9576,7 +9576,7 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P22" t="n">
-        <v>35.0470980121149</v>
+        <v>35.04709801211469</v>
       </c>
       <c r="Q22" t="n">
         <v>14.35992901061972</v>
@@ -9716,16 +9716,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>123.6019557182214</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>143.8066816348635</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>19.98870788066412</v>
       </c>
       <c r="R24" t="n">
-        <v>20.29589056427803</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>77.89739364703576</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M25" t="n">
         <v>278.4750710187352</v>
@@ -9813,7 +9813,7 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P25" t="n">
-        <v>210.6102387699041</v>
+        <v>35.04709801211492</v>
       </c>
       <c r="Q25" t="n">
         <v>14.35992901061972</v>
@@ -9953,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>216.6907230117024</v>
+        <v>70.70662222204687</v>
       </c>
       <c r="R27" t="n">
-        <v>71.01380490566048</v>
+        <v>20.29589056427803</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>253.4605344048249</v>
+        <v>77.89739364703576</v>
       </c>
       <c r="M28" t="n">
         <v>278.4750710187352</v>
@@ -10050,7 +10050,7 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P28" t="n">
-        <v>35.0470980121149</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q28" t="n">
         <v>14.35992901061972</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>143.8066816348635</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>123.6019557182213</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>19.9887078806639</v>
       </c>
       <c r="R30" t="n">
-        <v>20.29589056427803</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10275,22 +10275,22 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>36.94938729970285</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M31" t="n">
         <v>278.4750710187352</v>
       </c>
       <c r="N31" t="n">
-        <v>268.0356382773604</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>254.3449995307766</v>
+        <v>218.2944046443418</v>
       </c>
       <c r="P31" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q31" t="n">
-        <v>14.35992901061972</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>19.98870788066449</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>267.4086373530848</v>
       </c>
       <c r="R33" t="n">
-        <v>71.01380490566048</v>
+        <v>20.29589056427803</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10512,22 +10512,22 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>36.94938729970283</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M34" t="n">
-        <v>278.4750710187352</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O34" t="n">
-        <v>254.3449995307766</v>
+        <v>228.7338373857171</v>
       </c>
       <c r="P34" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q34" t="n">
-        <v>14.35992901061972</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>216.6907230117018</v>
+        <v>251.1334011966957</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>16.27523615638906</v>
       </c>
       <c r="R36" t="n">
-        <v>71.01380490566048</v>
+        <v>20.29589056427803</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.5245301161155</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>253.4605344048249</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>278.4750710187352</v>
@@ -10758,13 +10758,13 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O37" t="n">
-        <v>254.3449995307766</v>
+        <v>203.7193007718068</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.4070270227342</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,19 +10901,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>87.93459439381246</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>128.7561286178895</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.70662222204687</v>
       </c>
       <c r="R39" t="n">
-        <v>71.01380490566048</v>
+        <v>20.29589056427803</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>52.4725364634484</v>
+        <v>11.5245301161155</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>102.9119302609461</v>
       </c>
       <c r="L40" t="n">
         <v>253.4605344048249</v>
@@ -10998,10 +10998,10 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P40" t="n">
-        <v>184.9990766248442</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q40" t="n">
-        <v>101.9350150692923</v>
+        <v>14.35992901061972</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>267.4086373530847</v>
+        <v>216.6907230117023</v>
       </c>
       <c r="R42" t="n">
-        <v>20.29589056427804</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>52.4725364634484</v>
+        <v>11.5245301161155</v>
       </c>
       <c r="K43" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>37.19902527414877</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M43" t="n">
         <v>278.4750710187352</v>
@@ -11232,13 +11232,13 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P43" t="n">
-        <v>210.6102387699041</v>
+        <v>35.04709801211492</v>
       </c>
       <c r="Q43" t="n">
-        <v>101.9350150692923</v>
+        <v>14.35992901061972</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>87.93459439381228</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,13 +11387,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>128.7561286178894</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>19.98870788066452</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>52.4725364634484</v>
+        <v>11.5245301161155</v>
       </c>
       <c r="K46" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>253.4605344048249</v>
+        <v>77.89739364703507</v>
       </c>
       <c r="M46" t="n">
-        <v>149.7886479467317</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N46" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
-        <v>14.35992901061974</v>
+        <v>14.35992901061972</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.46437432142386</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>34.21832254923976</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>377.8187101789666</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>43.53226570176196</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
@@ -23278,7 +23278,7 @@
         <v>297.9069670906929</v>
       </c>
       <c r="I11" t="n">
-        <v>50.61552188340782</v>
+        <v>50.61552188340787</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>113.8158723039764</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.4621965088955</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.0160424770386</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>12.26362074853637</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>30.53265508341468</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.81940858854267</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>117.6609829984442</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>75.84199783012949</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.638300348564727</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23396,13 +23396,13 @@
         <v>207.8836805229861</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>213.9180702206952</v>
+        <v>45.67738378271241</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
@@ -23424,10 +23424,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5669519213864</v>
@@ -23436,7 +23436,7 @@
         <v>144.992301087403</v>
       </c>
       <c r="I13" t="n">
-        <v>101.5535788905865</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>127.7085472105566</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>229.0696442509355</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5296095801456</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>69.9321645985965</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.46437432142386</v>
+        <v>41.46437432142397</v>
       </c>
       <c r="C14" t="n">
-        <v>34.21832254923964</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>26.56129356263989</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -23515,7 +23515,7 @@
         <v>297.9069670906929</v>
       </c>
       <c r="I14" t="n">
-        <v>50.61552188340782</v>
+        <v>50.61552188340785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>113.8158723039764</v>
       </c>
       <c r="T14" t="n">
-        <v>151.771845585872</v>
+        <v>211.4621965088955</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.0160424770386</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>12.26362074853648</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>56.51200288686977</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -23579,13 +23579,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>90.45989402149173</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.638300348564712</v>
+        <v>7.638300348564719</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,22 +23624,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>111.3246482326984</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>170.3842387110332</v>
       </c>
       <c r="U15" t="n">
-        <v>207.8836805229861</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>94.95512163943212</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>73.49864719642706</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5669519213864</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.992301087403</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>77.49324417334925</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>183.2811567902616</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>229.0696442509355</v>
@@ -23712,16 +23712,16 @@
         <v>282.5296095801456</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.90279395637521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,16 +23734,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>34.21832254923976</v>
       </c>
       <c r="D17" t="n">
-        <v>26.56129356263989</v>
+        <v>26.56129356264</v>
       </c>
       <c r="E17" t="n">
-        <v>43.53226570176184</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>57.70007015246296</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>406.7916305480175</v>
@@ -23752,7 +23752,7 @@
         <v>297.9069670906929</v>
       </c>
       <c r="I17" t="n">
-        <v>50.61552188340785</v>
+        <v>50.61552188340787</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>113.8158723039764</v>
       </c>
       <c r="T17" t="n">
         <v>211.4621965088955</v>
@@ -23794,13 +23794,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>54.58265128133354</v>
       </c>
       <c r="X17" t="n">
-        <v>186.6675579201879</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>37.50037805574595</v>
       </c>
     </row>
     <row r="18">
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>26.73556935670267</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>75.84199783012949</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23867,13 +23867,13 @@
         <v>170.3842387110332</v>
       </c>
       <c r="U18" t="n">
-        <v>207.8836805229861</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>102.5934219879969</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>79.01671592166086</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>60.90561237255015</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5669519213864</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.992301087403</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>101.5535788905865</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>77.49324417334927</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5296095801456</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23989,7 +23989,7 @@
         <v>297.9069670906929</v>
       </c>
       <c r="I20" t="n">
-        <v>50.61552188340785</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>113.8158723039764</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>135.4321628565299</v>
+        <v>46.84751456687533</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0160424770386</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>12.26362074853637</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>30.53265508341468</v>
+        <v>30.5326550834148</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>37.50037805574595</v>
       </c>
     </row>
     <row r="21">
@@ -24062,10 +24062,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>117.6609829984442</v>
+        <v>86.16544913279682</v>
       </c>
       <c r="H21" t="n">
-        <v>75.84199783012947</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>7.638300348564719</v>
@@ -24101,13 +24101,13 @@
         <v>111.3246482326984</v>
       </c>
       <c r="T21" t="n">
-        <v>112.9770699168665</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5669519213864</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.992301087403</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7572846558535815</v>
+        <v>101.5535788905865</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.0696442509355</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5296095801456</v>
+        <v>109.6553625842796</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>41.46437432142392</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24214,19 +24214,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>43.5322657017619</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>100.01910068526</v>
       </c>
       <c r="G23" t="n">
-        <v>51.76620661515841</v>
+        <v>406.7916305480175</v>
       </c>
       <c r="H23" t="n">
         <v>297.9069670906929</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>50.61552188340785</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>12.26362074853637</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>123.4672074996193</v>
+        <v>30.53265508341474</v>
       </c>
       <c r="Y23" t="n">
-        <v>37.50037805574584</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24290,22 +24290,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>117.6609829984442</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>75.84199783012947</v>
       </c>
       <c r="I24" t="n">
-        <v>7.638300348564719</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24338,7 +24338,7 @@
         <v>111.3246482326984</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>86.91637666729657</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24347,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
-        <v>112.9770699168664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -24414,7 +24414,7 @@
         <v>77.49324417334927</v>
       </c>
       <c r="S25" t="n">
-        <v>121.5772102481323</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>50.21530303720743</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24448,19 +24448,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>321.8963665724755</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>43.53226570176184</v>
       </c>
       <c r="F26" t="n">
-        <v>266.1693312001452</v>
+        <v>57.70007015246296</v>
       </c>
       <c r="G26" t="n">
-        <v>51.7662066151584</v>
+        <v>51.76620661515841</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>297.9069670906929</v>
       </c>
       <c r="I26" t="n">
         <v>50.61552188340785</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>113.8158723039764</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.4621965088955</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24524,25 +24524,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>117.6609829984442</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>75.84199783012947</v>
       </c>
       <c r="I27" t="n">
-        <v>7.638300348564719</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24578,19 +24578,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>207.8836805229861</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>173.3782851213778</v>
       </c>
       <c r="Y27" t="n">
-        <v>75.15403001405596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>56.09643297323241</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>282.5296095801456</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>121.6541165355336</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,22 +24682,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>76.53735308203682</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>43.53226570176184</v>
+        <v>43.53226570176196</v>
       </c>
       <c r="F29" t="n">
-        <v>57.70007015246296</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>150.7826526097654</v>
+        <v>51.76620661515852</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>297.9069670906929</v>
       </c>
       <c r="I29" t="n">
         <v>50.61552188340785</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>113.8158723039764</v>
       </c>
       <c r="T29" t="n">
         <v>211.4621965088955</v>
@@ -24745,7 +24745,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>30.5326550834148</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24764,13 +24764,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>111.3422022812624</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
         <v>117.6609829984442</v>
@@ -24809,10 +24809,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>111.3246482326984</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>112.9770699168667</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.0800268985725</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -24852,13 +24852,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5669519213864</v>
+        <v>159.8964614718177</v>
       </c>
       <c r="H31" t="n">
         <v>144.992301087403</v>
       </c>
       <c r="I31" t="n">
-        <v>101.5535788905865</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>77.49324417334927</v>
       </c>
       <c r="S31" t="n">
-        <v>183.2811567902616</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>229.0696442509355</v>
       </c>
       <c r="U31" t="n">
         <v>282.5296095801456</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>350.4215623224958</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>43.53226570176184</v>
       </c>
       <c r="F32" t="n">
-        <v>316.7848530835531</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>51.7662066151584</v>
+        <v>406.7916305480175</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>297.9069670906929</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>37.50037805574584</v>
       </c>
     </row>
     <row r="33">
@@ -25007,7 +25007,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
         <v>117.6609829984442</v>
@@ -25049,16 +25049,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>170.3842387110332</v>
       </c>
       <c r="U33" t="n">
-        <v>42.07885751336028</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>227.816073408046</v>
+        <v>196.6378057673173</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>77.49324417334927</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>50.21530303720712</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>170.1471583664175</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,22 +25159,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>372.5118884558833</v>
       </c>
       <c r="E35" t="n">
-        <v>43.53226570176201</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>57.70007015246313</v>
+        <v>57.70007015246296</v>
       </c>
       <c r="G35" t="n">
-        <v>51.76620661515858</v>
+        <v>51.76620661515841</v>
       </c>
       <c r="H35" t="n">
         <v>297.9069670906929</v>
       </c>
       <c r="I35" t="n">
-        <v>50.61552188340785</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>211.4621965088955</v>
       </c>
       <c r="U35" t="n">
-        <v>253.0160424770386</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>54.58265128133331</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>37.50037805574584</v>
       </c>
     </row>
     <row r="36">
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>42.53664191594842</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>75.84199783012947</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.638300348564719</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>111.3246482326984</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>170.3842387110332</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>207.8836805229861</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>102.5934219879976</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5669519213864</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.992301087403</v>
@@ -25365,7 +25365,7 @@
         <v>183.2811567902616</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.0696442509355</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>105.566490568699</v>
       </c>
       <c r="X37" t="n">
-        <v>33.11253843058435</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>83.78340485422081</v>
+        <v>41.46437432142386</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>127.1528749654443</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>43.53226570176201</v>
+        <v>43.53226570176184</v>
       </c>
       <c r="F38" t="n">
-        <v>57.70007015246313</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>51.76620661515858</v>
+        <v>51.76620661515841</v>
       </c>
       <c r="H38" t="n">
         <v>297.9069670906929</v>
       </c>
       <c r="I38" t="n">
-        <v>50.61552188340787</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25481,13 +25481,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>109.4726498870069</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>117.6609829984442</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>75.84199783012947</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25526,13 +25526,13 @@
         <v>170.3842387110332</v>
       </c>
       <c r="U39" t="n">
-        <v>207.8836805229861</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>102.5934219879976</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>28.96537254240051</v>
+        <v>144.992301087403</v>
       </c>
       <c r="I40" t="n">
-        <v>101.5535788905865</v>
+        <v>98.8305511864433</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>183.2811567902616</v>
       </c>
       <c r="T40" t="n">
-        <v>229.0696442509355</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5296095801456</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>41.46437432142386</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>372.5118884558833</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>57.70007015246296</v>
       </c>
       <c r="G41" t="n">
-        <v>406.7916305480175</v>
+        <v>51.76620661515841</v>
       </c>
       <c r="H41" t="n">
         <v>297.9069670906929</v>
       </c>
       <c r="I41" t="n">
-        <v>50.61552188340787</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>113.8158723039764</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.4621965088955</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>261.5116559090428</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>37.50037805574595</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25709,10 +25709,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>117.6609829984442</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>75.84199783012947</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.638300348564719</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25763,19 +25763,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>19.35137250182745</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>12.95026377297847</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5669519213864</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.992301087403</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>77.49324417334927</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T43" t="n">
-        <v>170.1471583664179</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>15.32355184758205</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>134.3989267376285</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>34.21832254923982</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>26.56129356264006</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -25885,7 +25885,7 @@
         <v>297.9069670906929</v>
       </c>
       <c r="I44" t="n">
-        <v>50.61552188340787</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>253.0160424770386</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>12.26362074853648</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>30.5326550834148</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>63.47972585920093</v>
+        <v>37.50037805574601</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>121.400931222427</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>57.99296059191752</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.638300348564727</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26003,16 +26003,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5669519213864</v>
       </c>
       <c r="H46" t="n">
         <v>144.992301087403</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>101.5535788905865</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>77.49324417334927</v>
       </c>
       <c r="S46" t="n">
-        <v>183.2811567902616</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>229.0696442509355</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5296095801456</v>
+        <v>4.501597290660527</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>189.2300445963568</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>395732.2735926313</v>
+        <v>395732.2735926312</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>395732.2735926313</v>
+        <v>395732.2735926311</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>395732.2735926313</v>
+        <v>395732.2735926312</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>395732.2735926313</v>
+        <v>395732.2735926312</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>395732.2735926313</v>
+        <v>395732.2735926312</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>395732.2735926312</v>
+        <v>395732.2735926313</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>395732.2735926311</v>
+        <v>395732.2735926312</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>395732.2735926312</v>
+        <v>395732.2735926313</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>395732.2735926312</v>
+        <v>395732.2735926313</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>395732.273592631</v>
+        <v>395732.2735926313</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>539697.663944151</v>
       </c>
       <c r="D2" t="n">
-        <v>539697.663944151</v>
+        <v>539697.6639441509</v>
       </c>
       <c r="E2" t="n">
-        <v>281936.3139649788</v>
+        <v>281936.3139649787</v>
       </c>
       <c r="F2" t="n">
         <v>281936.3139649788</v>
       </c>
       <c r="G2" t="n">
+        <v>281936.3139649788</v>
+      </c>
+      <c r="H2" t="n">
         <v>281936.3139649789</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>281936.313964979</v>
       </c>
-      <c r="I2" t="n">
-        <v>281936.3139649787</v>
-      </c>
       <c r="J2" t="n">
-        <v>281936.3139649788</v>
+        <v>281936.3139649789</v>
       </c>
       <c r="K2" t="n">
         <v>281936.3139649788</v>
       </c>
       <c r="L2" t="n">
-        <v>281936.3139649787</v>
+        <v>281936.3139649788</v>
       </c>
       <c r="M2" t="n">
-        <v>281936.3139649787</v>
+        <v>281936.3139649788</v>
       </c>
       <c r="N2" t="n">
+        <v>281936.3139649789</v>
+      </c>
+      <c r="O2" t="n">
+        <v>281936.3139649789</v>
+      </c>
+      <c r="P2" t="n">
         <v>281936.3139649788</v>
-      </c>
-      <c r="O2" t="n">
-        <v>281936.3139649788</v>
-      </c>
-      <c r="P2" t="n">
-        <v>281936.3139649787</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>553558.4915485298</v>
+        <v>553558.4915485295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>88473.75574576412</v>
+        <v>88473.75574576415</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>400086.5329614659</v>
       </c>
       <c r="E4" t="n">
-        <v>20125.04914027333</v>
+        <v>20125.04914027334</v>
       </c>
       <c r="F4" t="n">
         <v>20125.04914027334</v>
       </c>
       <c r="G4" t="n">
-        <v>20125.04914027335</v>
+        <v>20125.04914027334</v>
       </c>
       <c r="H4" t="n">
-        <v>20125.04914027335</v>
+        <v>20125.04914027334</v>
       </c>
       <c r="I4" t="n">
-        <v>20125.04914027335</v>
+        <v>20125.04914027334</v>
       </c>
       <c r="J4" t="n">
         <v>20125.04914027335</v>
       </c>
       <c r="K4" t="n">
-        <v>20125.04914027335</v>
+        <v>20125.04914027333</v>
       </c>
       <c r="L4" t="n">
         <v>20125.04914027335</v>
       </c>
       <c r="M4" t="n">
+        <v>20125.04914027335</v>
+      </c>
+      <c r="N4" t="n">
+        <v>20125.04914027335</v>
+      </c>
+      <c r="O4" t="n">
+        <v>20125.04914027335</v>
+      </c>
+      <c r="P4" t="n">
         <v>20125.04914027332</v>
-      </c>
-      <c r="N4" t="n">
-        <v>20125.04914027334</v>
-      </c>
-      <c r="O4" t="n">
-        <v>20125.04914027334</v>
-      </c>
-      <c r="P4" t="n">
-        <v>20125.04914027335</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>33729.78034901014</v>
+        <v>33729.78034901012</v>
       </c>
       <c r="F5" t="n">
-        <v>33729.78034901014</v>
+        <v>33729.78034901012</v>
       </c>
       <c r="G5" t="n">
-        <v>33729.78034901013</v>
+        <v>33729.78034901012</v>
       </c>
       <c r="H5" t="n">
-        <v>33729.78034901013</v>
+        <v>33729.78034901012</v>
       </c>
       <c r="I5" t="n">
         <v>33729.78034901013</v>
@@ -26496,19 +26496,19 @@
         <v>33729.78034901013</v>
       </c>
       <c r="K5" t="n">
-        <v>33729.78034901013</v>
+        <v>33729.78034901012</v>
       </c>
       <c r="L5" t="n">
         <v>33729.78034901013</v>
       </c>
       <c r="M5" t="n">
-        <v>33729.78034901012</v>
+        <v>33729.78034901013</v>
       </c>
       <c r="N5" t="n">
-        <v>33729.78034901012</v>
+        <v>33729.78034901013</v>
       </c>
       <c r="O5" t="n">
-        <v>33729.78034901012</v>
+        <v>33729.78034901013</v>
       </c>
       <c r="P5" t="n">
         <v>33729.78034901012</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105983.5309826851</v>
+        <v>105979.2014148987</v>
       </c>
       <c r="C6" t="n">
-        <v>105983.5309826851</v>
+        <v>105979.2014148987</v>
       </c>
       <c r="D6" t="n">
-        <v>105983.5309826851</v>
+        <v>105979.2014148986</v>
       </c>
       <c r="E6" t="n">
-        <v>-325477.0070728344</v>
+        <v>-326340.5411405513</v>
       </c>
       <c r="F6" t="n">
-        <v>228081.4844756953</v>
+        <v>227217.9504079784</v>
       </c>
       <c r="G6" t="n">
-        <v>228081.4844756954</v>
+        <v>227217.9504079784</v>
       </c>
       <c r="H6" t="n">
-        <v>228081.4844756955</v>
+        <v>227217.9504079785</v>
       </c>
       <c r="I6" t="n">
-        <v>228081.4844756952</v>
+        <v>227217.9504079785</v>
       </c>
       <c r="J6" t="n">
-        <v>228081.4844756953</v>
+        <v>227217.9504079784</v>
       </c>
       <c r="K6" t="n">
-        <v>228081.4844756954</v>
+        <v>227217.9504079784</v>
       </c>
       <c r="L6" t="n">
-        <v>228081.4844756953</v>
+        <v>227217.9504079784</v>
       </c>
       <c r="M6" t="n">
-        <v>139607.7287299312</v>
+        <v>138744.1946622143</v>
       </c>
       <c r="N6" t="n">
-        <v>228081.4844756954</v>
+        <v>227217.9504079784</v>
       </c>
       <c r="O6" t="n">
-        <v>228081.4844756954</v>
+        <v>227217.9504079784</v>
       </c>
       <c r="P6" t="n">
-        <v>228081.4844756953</v>
+        <v>227217.9504079784</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>557.0749804537754</v>
+        <v>557.0749804537752</v>
       </c>
       <c r="F3" t="n">
-        <v>557.0749804537754</v>
+        <v>557.0749804537753</v>
       </c>
       <c r="G3" t="n">
-        <v>557.0749804537753</v>
+        <v>557.0749804537752</v>
       </c>
       <c r="H3" t="n">
         <v>557.0749804537753</v>
@@ -26773,13 +26773,13 @@
         <v>557.0749804537753</v>
       </c>
       <c r="N3" t="n">
-        <v>557.0749804537752</v>
+        <v>557.0749804537753</v>
       </c>
       <c r="O3" t="n">
-        <v>557.0749804537752</v>
+        <v>557.0749804537753</v>
       </c>
       <c r="P3" t="n">
-        <v>557.0749804537752</v>
+        <v>557.0749804537753</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>355.025423932859</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="F4" t="n">
-        <v>355.025423932859</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="G4" t="n">
-        <v>355.025423932859</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="H4" t="n">
-        <v>355.025423932859</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="I4" t="n">
         <v>355.025423932859</v>
@@ -26816,19 +26816,19 @@
         <v>355.025423932859</v>
       </c>
       <c r="K4" t="n">
-        <v>355.025423932859</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="L4" t="n">
         <v>355.025423932859</v>
       </c>
       <c r="M4" t="n">
-        <v>355.0254239328589</v>
+        <v>355.025423932859</v>
       </c>
       <c r="N4" t="n">
-        <v>355.0254239328589</v>
+        <v>355.025423932859</v>
       </c>
       <c r="O4" t="n">
-        <v>355.0254239328589</v>
+        <v>355.025423932859</v>
       </c>
       <c r="P4" t="n">
         <v>355.0254239328589</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>557.0749804537754</v>
+        <v>557.0749804537752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>355.025423932859</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>355.0254239328587</v>
+        <v>355.0254239328588</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>355.025423932859</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.239497408859397</v>
+        <v>2.239497408859396</v>
       </c>
       <c r="H11" t="n">
         <v>22.9352528384813</v>
       </c>
       <c r="I11" t="n">
-        <v>86.33822385505199</v>
+        <v>86.33822385505195</v>
       </c>
       <c r="J11" t="n">
-        <v>190.0745432051804</v>
+        <v>190.0745432051803</v>
       </c>
       <c r="K11" t="n">
-        <v>284.8724685221987</v>
+        <v>284.8724685221986</v>
       </c>
       <c r="L11" t="n">
-        <v>353.4094873485796</v>
+        <v>353.4094873485794</v>
       </c>
       <c r="M11" t="n">
-        <v>393.2361493933829</v>
+        <v>393.2361493933827</v>
       </c>
       <c r="N11" t="n">
-        <v>399.5991214063047</v>
+        <v>399.5991214063045</v>
       </c>
       <c r="O11" t="n">
-        <v>377.330119046959</v>
+        <v>377.3301190469589</v>
       </c>
       <c r="P11" t="n">
-        <v>322.0425267657426</v>
+        <v>322.0425267657425</v>
       </c>
       <c r="Q11" t="n">
-        <v>241.8405258109654</v>
+        <v>241.8405258109653</v>
       </c>
       <c r="R11" t="n">
         <v>140.6768291092642</v>
       </c>
       <c r="S11" t="n">
-        <v>51.03254720438356</v>
+        <v>51.03254720438354</v>
       </c>
       <c r="T11" t="n">
-        <v>9.803399907282015</v>
+        <v>9.803399907282012</v>
       </c>
       <c r="U11" t="n">
         <v>0.1791597927087517</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.198236750410008</v>
+        <v>1.198236750410007</v>
       </c>
       <c r="H12" t="n">
         <v>11.5724444052756</v>
       </c>
       <c r="I12" t="n">
-        <v>41.25508109964281</v>
+        <v>41.25508109964279</v>
       </c>
       <c r="J12" t="n">
         <v>113.2070957920262</v>
       </c>
       <c r="K12" t="n">
-        <v>193.4889580694967</v>
+        <v>193.4889580694966</v>
       </c>
       <c r="L12" t="n">
-        <v>260.1697821449449</v>
+        <v>260.1697821449447</v>
       </c>
       <c r="M12" t="n">
-        <v>303.6058643473075</v>
+        <v>303.6058643473074</v>
       </c>
       <c r="N12" t="n">
-        <v>311.6414081691361</v>
+        <v>311.641408169136</v>
       </c>
       <c r="O12" t="n">
-        <v>285.0910043837354</v>
+        <v>285.0910043837353</v>
       </c>
       <c r="P12" t="n">
-        <v>228.8106650848724</v>
+        <v>228.8106650848723</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.9538701049687</v>
+        <v>152.9538701049686</v>
       </c>
       <c r="R12" t="n">
-        <v>74.39578701229857</v>
+        <v>74.39578701229854</v>
       </c>
       <c r="S12" t="n">
-        <v>22.25672209643148</v>
+        <v>22.25672209643147</v>
       </c>
       <c r="T12" t="n">
-        <v>4.829734972047353</v>
+        <v>4.829734972047351</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07883136515855316</v>
+        <v>0.07883136515855313</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.004561440162546</v>
+        <v>1.004561440162545</v>
       </c>
       <c r="H13" t="n">
-        <v>8.931464440717914</v>
+        <v>8.93146444071791</v>
       </c>
       <c r="I13" t="n">
-        <v>30.20990221870639</v>
+        <v>30.20990221870637</v>
       </c>
       <c r="J13" t="n">
-        <v>71.02249381949198</v>
+        <v>71.02249381949196</v>
       </c>
       <c r="K13" t="n">
-        <v>116.7117745934303</v>
+        <v>116.7117745934302</v>
       </c>
       <c r="L13" t="n">
         <v>149.3508890219843</v>
       </c>
       <c r="M13" t="n">
-        <v>157.4695719338434</v>
+        <v>157.4695719338433</v>
       </c>
       <c r="N13" t="n">
-        <v>153.7252974750559</v>
+        <v>153.7252974750558</v>
       </c>
       <c r="O13" t="n">
         <v>141.9901933786115</v>
       </c>
       <c r="P13" t="n">
-        <v>121.4971399992955</v>
+        <v>121.4971399992954</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.11832204852008</v>
+        <v>84.11832204852006</v>
       </c>
       <c r="R13" t="n">
-        <v>45.16873530039955</v>
+        <v>45.16873530039953</v>
       </c>
       <c r="S13" t="n">
-        <v>17.50676618901454</v>
+        <v>17.50676618901453</v>
       </c>
       <c r="T13" t="n">
-        <v>4.292217062512695</v>
+        <v>4.292217062512693</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05479426037250256</v>
+        <v>0.05479426037250253</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>22.9352528384813</v>
       </c>
       <c r="I14" t="n">
-        <v>86.33822385505199</v>
+        <v>86.33822385505196</v>
       </c>
       <c r="J14" t="n">
         <v>190.0745432051804</v>
@@ -32004,31 +32004,31 @@
         <v>284.8724685221987</v>
       </c>
       <c r="L14" t="n">
-        <v>353.4094873485796</v>
+        <v>353.4094873485795</v>
       </c>
       <c r="M14" t="n">
-        <v>393.2361493933829</v>
+        <v>393.2361493933828</v>
       </c>
       <c r="N14" t="n">
-        <v>399.5991214063047</v>
+        <v>399.5991214063046</v>
       </c>
       <c r="O14" t="n">
-        <v>377.330119046959</v>
+        <v>377.3301190469589</v>
       </c>
       <c r="P14" t="n">
-        <v>322.0425267657426</v>
+        <v>322.0425267657425</v>
       </c>
       <c r="Q14" t="n">
-        <v>241.8405258109654</v>
+        <v>241.8405258109653</v>
       </c>
       <c r="R14" t="n">
         <v>140.6768291092642</v>
       </c>
       <c r="S14" t="n">
-        <v>51.03254720438356</v>
+        <v>51.03254720438355</v>
       </c>
       <c r="T14" t="n">
-        <v>9.803399907282015</v>
+        <v>9.803399907282014</v>
       </c>
       <c r="U14" t="n">
         <v>0.1791597927087517</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.198236750410008</v>
+        <v>1.198236750410007</v>
       </c>
       <c r="H15" t="n">
         <v>11.5724444052756</v>
       </c>
       <c r="I15" t="n">
-        <v>41.25508109964281</v>
+        <v>41.2550810996428</v>
       </c>
       <c r="J15" t="n">
         <v>113.2070957920262</v>
@@ -32083,7 +32083,7 @@
         <v>193.4889580694967</v>
       </c>
       <c r="L15" t="n">
-        <v>260.1697821449449</v>
+        <v>260.1697821449448</v>
       </c>
       <c r="M15" t="n">
         <v>303.6058643473075</v>
@@ -32101,16 +32101,16 @@
         <v>152.9538701049687</v>
       </c>
       <c r="R15" t="n">
-        <v>74.39578701229857</v>
+        <v>74.39578701229856</v>
       </c>
       <c r="S15" t="n">
         <v>22.25672209643148</v>
       </c>
       <c r="T15" t="n">
-        <v>4.829734972047353</v>
+        <v>4.829734972047352</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07883136515855316</v>
+        <v>0.07883136515855314</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,13 +32150,13 @@
         <v>1.004561440162546</v>
       </c>
       <c r="H16" t="n">
-        <v>8.931464440717914</v>
+        <v>8.931464440717912</v>
       </c>
       <c r="I16" t="n">
-        <v>30.20990221870639</v>
+        <v>30.20990221870638</v>
       </c>
       <c r="J16" t="n">
-        <v>71.02249381949198</v>
+        <v>71.02249381949197</v>
       </c>
       <c r="K16" t="n">
         <v>116.7117745934303</v>
@@ -32168,7 +32168,7 @@
         <v>157.4695719338434</v>
       </c>
       <c r="N16" t="n">
-        <v>153.7252974750559</v>
+        <v>153.7252974750558</v>
       </c>
       <c r="O16" t="n">
         <v>141.9901933786115</v>
@@ -32177,19 +32177,19 @@
         <v>121.4971399992955</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.11832204852008</v>
+        <v>84.11832204852007</v>
       </c>
       <c r="R16" t="n">
-        <v>45.16873530039955</v>
+        <v>45.16873530039953</v>
       </c>
       <c r="S16" t="n">
         <v>17.50676618901454</v>
       </c>
       <c r="T16" t="n">
-        <v>4.292217062512695</v>
+        <v>4.292217062512694</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05479426037250256</v>
+        <v>0.05479426037250255</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,28 +32226,28 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.239497408859397</v>
+        <v>2.239497408859396</v>
       </c>
       <c r="H17" t="n">
         <v>22.9352528384813</v>
       </c>
       <c r="I17" t="n">
-        <v>86.33822385505196</v>
+        <v>86.33822385505195</v>
       </c>
       <c r="J17" t="n">
-        <v>190.0745432051804</v>
+        <v>190.0745432051803</v>
       </c>
       <c r="K17" t="n">
-        <v>284.8724685221987</v>
+        <v>284.8724685221986</v>
       </c>
       <c r="L17" t="n">
-        <v>353.4094873485795</v>
+        <v>353.4094873485794</v>
       </c>
       <c r="M17" t="n">
-        <v>393.2361493933828</v>
+        <v>393.2361493933827</v>
       </c>
       <c r="N17" t="n">
-        <v>399.5991214063046</v>
+        <v>399.5991214063045</v>
       </c>
       <c r="O17" t="n">
         <v>377.3301190469589</v>
@@ -32262,10 +32262,10 @@
         <v>140.6768291092642</v>
       </c>
       <c r="S17" t="n">
-        <v>51.03254720438355</v>
+        <v>51.03254720438354</v>
       </c>
       <c r="T17" t="n">
-        <v>9.803399907282014</v>
+        <v>9.803399907282012</v>
       </c>
       <c r="U17" t="n">
         <v>0.1791597927087517</v>
@@ -32311,43 +32311,43 @@
         <v>11.5724444052756</v>
       </c>
       <c r="I18" t="n">
-        <v>41.2550810996428</v>
+        <v>41.25508109964279</v>
       </c>
       <c r="J18" t="n">
         <v>113.2070957920262</v>
       </c>
       <c r="K18" t="n">
-        <v>193.4889580694967</v>
+        <v>193.4889580694966</v>
       </c>
       <c r="L18" t="n">
-        <v>260.1697821449448</v>
+        <v>260.1697821449447</v>
       </c>
       <c r="M18" t="n">
-        <v>303.6058643473075</v>
+        <v>303.6058643473074</v>
       </c>
       <c r="N18" t="n">
-        <v>311.6414081691361</v>
+        <v>311.641408169136</v>
       </c>
       <c r="O18" t="n">
-        <v>285.0910043837354</v>
+        <v>285.0910043837353</v>
       </c>
       <c r="P18" t="n">
-        <v>228.8106650848724</v>
+        <v>228.8106650848723</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.9538701049687</v>
+        <v>152.9538701049686</v>
       </c>
       <c r="R18" t="n">
-        <v>74.39578701229856</v>
+        <v>74.39578701229854</v>
       </c>
       <c r="S18" t="n">
-        <v>22.25672209643148</v>
+        <v>22.25672209643147</v>
       </c>
       <c r="T18" t="n">
-        <v>4.829734972047352</v>
+        <v>4.829734972047351</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07883136515855314</v>
+        <v>0.07883136515855313</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.004561440162546</v>
+        <v>1.004561440162545</v>
       </c>
       <c r="H19" t="n">
-        <v>8.931464440717912</v>
+        <v>8.93146444071791</v>
       </c>
       <c r="I19" t="n">
-        <v>30.20990221870638</v>
+        <v>30.20990221870637</v>
       </c>
       <c r="J19" t="n">
-        <v>71.02249381949197</v>
+        <v>71.02249381949196</v>
       </c>
       <c r="K19" t="n">
-        <v>116.7117745934303</v>
+        <v>116.7117745934302</v>
       </c>
       <c r="L19" t="n">
         <v>149.3508890219843</v>
       </c>
       <c r="M19" t="n">
-        <v>157.4695719338434</v>
+        <v>157.4695719338433</v>
       </c>
       <c r="N19" t="n">
         <v>153.7252974750558</v>
@@ -32411,22 +32411,22 @@
         <v>141.9901933786115</v>
       </c>
       <c r="P19" t="n">
-        <v>121.4971399992955</v>
+        <v>121.4971399992954</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.11832204852007</v>
+        <v>84.11832204852006</v>
       </c>
       <c r="R19" t="n">
         <v>45.16873530039953</v>
       </c>
       <c r="S19" t="n">
-        <v>17.50676618901454</v>
+        <v>17.50676618901453</v>
       </c>
       <c r="T19" t="n">
-        <v>4.292217062512694</v>
+        <v>4.292217062512693</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05479426037250255</v>
+        <v>0.05479426037250253</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33885,28 +33885,28 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.239497408859396</v>
+        <v>2.239497408859397</v>
       </c>
       <c r="H38" t="n">
         <v>22.9352528384813</v>
       </c>
       <c r="I38" t="n">
-        <v>86.33822385505195</v>
+        <v>86.33822385505196</v>
       </c>
       <c r="J38" t="n">
-        <v>190.0745432051803</v>
+        <v>190.0745432051804</v>
       </c>
       <c r="K38" t="n">
-        <v>284.8724685221986</v>
+        <v>284.8724685221987</v>
       </c>
       <c r="L38" t="n">
-        <v>353.4094873485794</v>
+        <v>353.4094873485795</v>
       </c>
       <c r="M38" t="n">
-        <v>393.2361493933827</v>
+        <v>393.2361493933828</v>
       </c>
       <c r="N38" t="n">
-        <v>399.5991214063045</v>
+        <v>399.5991214063046</v>
       </c>
       <c r="O38" t="n">
         <v>377.3301190469589</v>
@@ -33921,10 +33921,10 @@
         <v>140.6768291092642</v>
       </c>
       <c r="S38" t="n">
-        <v>51.03254720438354</v>
+        <v>51.03254720438355</v>
       </c>
       <c r="T38" t="n">
-        <v>9.803399907282012</v>
+        <v>9.803399907282014</v>
       </c>
       <c r="U38" t="n">
         <v>0.1791597927087517</v>
@@ -33970,43 +33970,43 @@
         <v>11.5724444052756</v>
       </c>
       <c r="I39" t="n">
-        <v>41.25508109964279</v>
+        <v>41.2550810996428</v>
       </c>
       <c r="J39" t="n">
         <v>113.2070957920262</v>
       </c>
       <c r="K39" t="n">
-        <v>193.4889580694966</v>
+        <v>193.4889580694967</v>
       </c>
       <c r="L39" t="n">
-        <v>260.1697821449447</v>
+        <v>260.1697821449448</v>
       </c>
       <c r="M39" t="n">
-        <v>303.6058643473074</v>
+        <v>303.6058643473075</v>
       </c>
       <c r="N39" t="n">
-        <v>311.641408169136</v>
+        <v>311.6414081691361</v>
       </c>
       <c r="O39" t="n">
-        <v>285.0910043837353</v>
+        <v>285.0910043837354</v>
       </c>
       <c r="P39" t="n">
-        <v>228.8106650848723</v>
+        <v>228.8106650848724</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.9538701049686</v>
+        <v>152.9538701049687</v>
       </c>
       <c r="R39" t="n">
-        <v>74.39578701229854</v>
+        <v>74.39578701229856</v>
       </c>
       <c r="S39" t="n">
-        <v>22.25672209643147</v>
+        <v>22.25672209643148</v>
       </c>
       <c r="T39" t="n">
-        <v>4.829734972047351</v>
+        <v>4.829734972047352</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07883136515855313</v>
+        <v>0.07883136515855314</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.004561440162545</v>
+        <v>1.004561440162546</v>
       </c>
       <c r="H40" t="n">
-        <v>8.93146444071791</v>
+        <v>8.931464440717912</v>
       </c>
       <c r="I40" t="n">
-        <v>30.20990221870637</v>
+        <v>30.20990221870638</v>
       </c>
       <c r="J40" t="n">
-        <v>71.02249381949196</v>
+        <v>71.02249381949197</v>
       </c>
       <c r="K40" t="n">
-        <v>116.7117745934302</v>
+        <v>116.7117745934303</v>
       </c>
       <c r="L40" t="n">
         <v>149.3508890219843</v>
       </c>
       <c r="M40" t="n">
-        <v>157.4695719338433</v>
+        <v>157.4695719338434</v>
       </c>
       <c r="N40" t="n">
         <v>153.7252974750558</v>
@@ -34070,22 +34070,22 @@
         <v>141.9901933786115</v>
       </c>
       <c r="P40" t="n">
-        <v>121.4971399992954</v>
+        <v>121.4971399992955</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.11832204852006</v>
+        <v>84.11832204852007</v>
       </c>
       <c r="R40" t="n">
         <v>45.16873530039953</v>
       </c>
       <c r="S40" t="n">
-        <v>17.50676618901453</v>
+        <v>17.50676618901454</v>
       </c>
       <c r="T40" t="n">
-        <v>4.292217062512693</v>
+        <v>4.292217062512694</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05479426037250253</v>
+        <v>0.05479426037250255</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,28 +34122,28 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.239497408859396</v>
+        <v>2.239497408859397</v>
       </c>
       <c r="H41" t="n">
         <v>22.9352528384813</v>
       </c>
       <c r="I41" t="n">
-        <v>86.33822385505195</v>
+        <v>86.33822385505196</v>
       </c>
       <c r="J41" t="n">
-        <v>190.0745432051803</v>
+        <v>190.0745432051804</v>
       </c>
       <c r="K41" t="n">
-        <v>284.8724685221986</v>
+        <v>284.8724685221987</v>
       </c>
       <c r="L41" t="n">
-        <v>353.4094873485794</v>
+        <v>353.4094873485795</v>
       </c>
       <c r="M41" t="n">
-        <v>393.2361493933827</v>
+        <v>393.2361493933828</v>
       </c>
       <c r="N41" t="n">
-        <v>399.5991214063045</v>
+        <v>399.5991214063046</v>
       </c>
       <c r="O41" t="n">
         <v>377.3301190469589</v>
@@ -34158,10 +34158,10 @@
         <v>140.6768291092642</v>
       </c>
       <c r="S41" t="n">
-        <v>51.03254720438354</v>
+        <v>51.03254720438355</v>
       </c>
       <c r="T41" t="n">
-        <v>9.803399907282012</v>
+        <v>9.803399907282014</v>
       </c>
       <c r="U41" t="n">
         <v>0.1791597927087517</v>
@@ -34207,43 +34207,43 @@
         <v>11.5724444052756</v>
       </c>
       <c r="I42" t="n">
-        <v>41.25508109964279</v>
+        <v>41.2550810996428</v>
       </c>
       <c r="J42" t="n">
         <v>113.2070957920262</v>
       </c>
       <c r="K42" t="n">
-        <v>193.4889580694966</v>
+        <v>193.4889580694967</v>
       </c>
       <c r="L42" t="n">
-        <v>260.1697821449447</v>
+        <v>260.1697821449448</v>
       </c>
       <c r="M42" t="n">
-        <v>303.6058643473074</v>
+        <v>303.6058643473075</v>
       </c>
       <c r="N42" t="n">
-        <v>311.641408169136</v>
+        <v>311.6414081691361</v>
       </c>
       <c r="O42" t="n">
-        <v>285.0910043837353</v>
+        <v>285.0910043837354</v>
       </c>
       <c r="P42" t="n">
-        <v>228.8106650848723</v>
+        <v>228.8106650848724</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.9538701049686</v>
+        <v>152.9538701049687</v>
       </c>
       <c r="R42" t="n">
-        <v>74.39578701229854</v>
+        <v>74.39578701229856</v>
       </c>
       <c r="S42" t="n">
-        <v>22.25672209643147</v>
+        <v>22.25672209643148</v>
       </c>
       <c r="T42" t="n">
-        <v>4.829734972047351</v>
+        <v>4.829734972047352</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07883136515855313</v>
+        <v>0.07883136515855314</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.004561440162545</v>
+        <v>1.004561440162546</v>
       </c>
       <c r="H43" t="n">
-        <v>8.93146444071791</v>
+        <v>8.931464440717912</v>
       </c>
       <c r="I43" t="n">
-        <v>30.20990221870637</v>
+        <v>30.20990221870638</v>
       </c>
       <c r="J43" t="n">
-        <v>71.02249381949196</v>
+        <v>71.02249381949197</v>
       </c>
       <c r="K43" t="n">
-        <v>116.7117745934302</v>
+        <v>116.7117745934303</v>
       </c>
       <c r="L43" t="n">
         <v>149.3508890219843</v>
       </c>
       <c r="M43" t="n">
-        <v>157.4695719338433</v>
+        <v>157.4695719338434</v>
       </c>
       <c r="N43" t="n">
         <v>153.7252974750558</v>
@@ -34307,22 +34307,22 @@
         <v>141.9901933786115</v>
       </c>
       <c r="P43" t="n">
-        <v>121.4971399992954</v>
+        <v>121.4971399992955</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.11832204852006</v>
+        <v>84.11832204852007</v>
       </c>
       <c r="R43" t="n">
         <v>45.16873530039953</v>
       </c>
       <c r="S43" t="n">
-        <v>17.50676618901453</v>
+        <v>17.50676618901454</v>
       </c>
       <c r="T43" t="n">
-        <v>4.292217062512693</v>
+        <v>4.292217062512694</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05479426037250253</v>
+        <v>0.05479426037250255</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,28 +34359,28 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.239497408859396</v>
+        <v>2.239497408859397</v>
       </c>
       <c r="H44" t="n">
         <v>22.9352528384813</v>
       </c>
       <c r="I44" t="n">
-        <v>86.33822385505195</v>
+        <v>86.33822385505196</v>
       </c>
       <c r="J44" t="n">
-        <v>190.0745432051808</v>
+        <v>190.0745432051804</v>
       </c>
       <c r="K44" t="n">
-        <v>284.8724685221986</v>
+        <v>284.8724685221987</v>
       </c>
       <c r="L44" t="n">
-        <v>353.4094873485794</v>
+        <v>353.4094873485795</v>
       </c>
       <c r="M44" t="n">
-        <v>393.2361493933827</v>
+        <v>393.2361493933828</v>
       </c>
       <c r="N44" t="n">
-        <v>399.5991214063045</v>
+        <v>399.5991214063046</v>
       </c>
       <c r="O44" t="n">
         <v>377.3301190469589</v>
@@ -34395,10 +34395,10 @@
         <v>140.6768291092642</v>
       </c>
       <c r="S44" t="n">
-        <v>51.03254720438354</v>
+        <v>51.03254720438355</v>
       </c>
       <c r="T44" t="n">
-        <v>9.803399907282012</v>
+        <v>9.803399907282014</v>
       </c>
       <c r="U44" t="n">
         <v>0.1791597927087517</v>
@@ -34444,43 +34444,43 @@
         <v>11.5724444052756</v>
       </c>
       <c r="I45" t="n">
-        <v>41.25508109964279</v>
+        <v>41.2550810996428</v>
       </c>
       <c r="J45" t="n">
         <v>113.2070957920262</v>
       </c>
       <c r="K45" t="n">
-        <v>193.4889580694966</v>
+        <v>193.4889580694967</v>
       </c>
       <c r="L45" t="n">
-        <v>260.1697821449447</v>
+        <v>260.1697821449448</v>
       </c>
       <c r="M45" t="n">
-        <v>303.6058643473074</v>
+        <v>303.6058643473075</v>
       </c>
       <c r="N45" t="n">
-        <v>311.641408169136</v>
+        <v>311.6414081691361</v>
       </c>
       <c r="O45" t="n">
-        <v>285.0910043837353</v>
+        <v>285.0910043837354</v>
       </c>
       <c r="P45" t="n">
-        <v>228.8106650848723</v>
+        <v>228.8106650848724</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.9538701049686</v>
+        <v>152.9538701049687</v>
       </c>
       <c r="R45" t="n">
-        <v>74.39578701229854</v>
+        <v>74.39578701229856</v>
       </c>
       <c r="S45" t="n">
-        <v>22.25672209643147</v>
+        <v>22.25672209643148</v>
       </c>
       <c r="T45" t="n">
-        <v>4.829734972047351</v>
+        <v>4.829734972047352</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07883136515855313</v>
+        <v>0.07883136515855314</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.004561440162545</v>
+        <v>1.004561440162546</v>
       </c>
       <c r="H46" t="n">
-        <v>8.93146444071791</v>
+        <v>8.931464440717912</v>
       </c>
       <c r="I46" t="n">
-        <v>30.20990221870637</v>
+        <v>30.20990221870638</v>
       </c>
       <c r="J46" t="n">
-        <v>71.02249381949196</v>
+        <v>71.02249381949197</v>
       </c>
       <c r="K46" t="n">
-        <v>116.7117745934302</v>
+        <v>116.7117745934303</v>
       </c>
       <c r="L46" t="n">
         <v>149.3508890219843</v>
       </c>
       <c r="M46" t="n">
-        <v>157.4695719338433</v>
+        <v>157.4695719338434</v>
       </c>
       <c r="N46" t="n">
         <v>153.7252974750558</v>
@@ -34544,22 +34544,22 @@
         <v>141.9901933786115</v>
       </c>
       <c r="P46" t="n">
-        <v>121.4971399992954</v>
+        <v>121.4971399992955</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.11832204852006</v>
+        <v>84.11832204852007</v>
       </c>
       <c r="R46" t="n">
         <v>45.16873530039953</v>
       </c>
       <c r="S46" t="n">
-        <v>17.50676618901453</v>
+        <v>17.50676618901454</v>
       </c>
       <c r="T46" t="n">
-        <v>4.292217062512693</v>
+        <v>4.292217062512694</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05479426037250253</v>
+        <v>0.05479426037250255</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>72.39470526283432</v>
+        <v>72.39470526283424</v>
       </c>
       <c r="K11" t="n">
-        <v>141.8140653429614</v>
+        <v>141.8140653429613</v>
       </c>
       <c r="L11" t="n">
-        <v>200.1613176180879</v>
+        <v>200.1613176180877</v>
       </c>
       <c r="M11" t="n">
-        <v>243.5110977956556</v>
+        <v>243.5110977956555</v>
       </c>
       <c r="N11" t="n">
-        <v>250.4806300685206</v>
+        <v>250.4806300685204</v>
       </c>
       <c r="O11" t="n">
-        <v>227.7662816228626</v>
+        <v>227.7662816228625</v>
       </c>
       <c r="P11" t="n">
-        <v>171.7410795248174</v>
+        <v>171.7410795248173</v>
       </c>
       <c r="Q11" t="n">
-        <v>97.34182739257321</v>
+        <v>97.34182739257312</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5462295300783353</v>
+        <v>0.5462295300782785</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>227.4646535897306</v>
+        <v>30.76263845869282</v>
       </c>
       <c r="K12" t="n">
-        <v>103.8920227361634</v>
+        <v>103.8920227361633</v>
       </c>
       <c r="L12" t="n">
-        <v>170.1094352880266</v>
+        <v>170.1094352880265</v>
       </c>
       <c r="M12" t="n">
-        <v>211.2187422979956</v>
+        <v>211.2187422979955</v>
       </c>
       <c r="N12" t="n">
-        <v>226.2692953149695</v>
+        <v>226.2692953149694</v>
       </c>
       <c r="O12" t="n">
-        <v>192.4034454948466</v>
+        <v>192.4034454948464</v>
       </c>
       <c r="P12" t="n">
-        <v>141.7273002655578</v>
+        <v>141.7273002655577</v>
       </c>
       <c r="Q12" t="n">
-        <v>81.9544248297188</v>
+        <v>278.6564399607568</v>
       </c>
       <c r="R12" t="n">
-        <v>50.71791434138247</v>
+        <v>50.71791434138244</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>40.94800634733289</v>
       </c>
       <c r="K13" t="n">
-        <v>32.8531567825823</v>
+        <v>199.3734322802402</v>
       </c>
       <c r="L13" t="n">
-        <v>315.1363838440043</v>
+        <v>123.0049462012867</v>
       </c>
       <c r="M13" t="n">
-        <v>345.6428833866354</v>
+        <v>67.16781236790005</v>
       </c>
       <c r="N13" t="n">
-        <v>163.2021910922253</v>
+        <v>338.7653318500146</v>
       </c>
       <c r="O13" t="n">
-        <v>306.3384429156904</v>
+        <v>306.3384429156903</v>
       </c>
       <c r="P13" t="n">
         <v>242.5841761372536</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>87.57508605867254</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>72.39470526283432</v>
+        <v>72.39470526283429</v>
       </c>
       <c r="K14" t="n">
-        <v>141.8140653429614</v>
+        <v>141.8140653429613</v>
       </c>
       <c r="L14" t="n">
-        <v>200.1613176180879</v>
+        <v>200.1613176180878</v>
       </c>
       <c r="M14" t="n">
-        <v>243.5110977956556</v>
+        <v>243.5110977956555</v>
       </c>
       <c r="N14" t="n">
-        <v>250.4806300685206</v>
+        <v>250.4806300685205</v>
       </c>
       <c r="O14" t="n">
         <v>227.7662816228626</v>
       </c>
       <c r="P14" t="n">
-        <v>171.7410795248174</v>
+        <v>171.7410795248173</v>
       </c>
       <c r="Q14" t="n">
-        <v>97.34182739257321</v>
+        <v>97.34182739257315</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5462295300783353</v>
+        <v>0.5462295300783069</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>227.4646535897306</v>
       </c>
       <c r="K15" t="n">
-        <v>103.8920227361634</v>
+        <v>174.59864495821</v>
       </c>
       <c r="L15" t="n">
         <v>170.1094352880266</v>
@@ -35737,19 +35737,19 @@
         <v>211.2187422979956</v>
       </c>
       <c r="N15" t="n">
-        <v>226.2692953149695</v>
+        <v>226.2692953149694</v>
       </c>
       <c r="O15" t="n">
-        <v>192.4034454948466</v>
+        <v>192.4034454948465</v>
       </c>
       <c r="P15" t="n">
-        <v>141.7273002655578</v>
+        <v>141.7273002655577</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.9544248297188</v>
+        <v>61.96571694905468</v>
       </c>
       <c r="R15" t="n">
-        <v>50.71791434138247</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,22 +35810,22 @@
         <v>199.3734322802403</v>
       </c>
       <c r="L16" t="n">
-        <v>153.5135198072447</v>
+        <v>315.1363838440043</v>
       </c>
       <c r="M16" t="n">
-        <v>345.6428833866354</v>
+        <v>345.6428833866353</v>
       </c>
       <c r="N16" t="n">
-        <v>70.7296935726543</v>
+        <v>338.7653318500146</v>
       </c>
       <c r="O16" t="n">
-        <v>306.3384429156904</v>
+        <v>174.8652654301471</v>
       </c>
       <c r="P16" t="n">
-        <v>242.5841761372536</v>
+        <v>31.97393736734952</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.57508605867257</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>72.39470526283429</v>
+        <v>72.39470526283424</v>
       </c>
       <c r="K17" t="n">
         <v>141.8140653429613</v>
       </c>
       <c r="L17" t="n">
-        <v>200.1613176180878</v>
+        <v>200.1613176180877</v>
       </c>
       <c r="M17" t="n">
         <v>243.5110977956555</v>
       </c>
       <c r="N17" t="n">
-        <v>250.4806300685205</v>
+        <v>250.4806300685204</v>
       </c>
       <c r="O17" t="n">
-        <v>227.7662816228626</v>
+        <v>227.7662816228625</v>
       </c>
       <c r="P17" t="n">
         <v>171.7410795248173</v>
       </c>
       <c r="Q17" t="n">
-        <v>97.34182739257315</v>
+        <v>97.34182739257312</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5462295300783069</v>
+        <v>0.5462295300782785</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>30.76263845869285</v>
+        <v>227.4646535897306</v>
       </c>
       <c r="K18" t="n">
-        <v>103.8920227361633</v>
+        <v>123.8807306168278</v>
       </c>
       <c r="L18" t="n">
-        <v>170.1094352880266</v>
+        <v>170.1094352880265</v>
       </c>
       <c r="M18" t="n">
-        <v>355.025423932859</v>
+        <v>211.2187422979955</v>
       </c>
       <c r="N18" t="n">
         <v>226.2692953149694</v>
       </c>
       <c r="O18" t="n">
-        <v>265.2874868716853</v>
+        <v>192.4034454948464</v>
       </c>
       <c r="P18" t="n">
         <v>141.7273002655577</v>
       </c>
       <c r="Q18" t="n">
-        <v>61.96571694905468</v>
+        <v>61.96571694905465</v>
       </c>
       <c r="R18" t="n">
-        <v>50.71791434138245</v>
+        <v>50.71791434138244</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>40.94800634733289</v>
       </c>
       <c r="K19" t="n">
-        <v>32.85315678258227</v>
+        <v>199.3734322802402</v>
       </c>
       <c r="L19" t="n">
         <v>315.1363838440043</v>
       </c>
       <c r="M19" t="n">
-        <v>170.0797426288461</v>
+        <v>345.6428833866353</v>
       </c>
       <c r="N19" t="n">
         <v>338.7653318500146</v>
       </c>
       <c r="O19" t="n">
-        <v>306.3384429156903</v>
+        <v>51.99344338491365</v>
       </c>
       <c r="P19" t="n">
-        <v>242.5841761372536</v>
+        <v>113.8977530652499</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36208,10 +36208,10 @@
         <v>170.1094352880266</v>
       </c>
       <c r="M21" t="n">
-        <v>349.8712510331908</v>
+        <v>211.2187422979956</v>
       </c>
       <c r="N21" t="n">
-        <v>355.025423932859</v>
+        <v>226.2692953149694</v>
       </c>
       <c r="O21" t="n">
         <v>192.4034454948465</v>
@@ -36220,7 +36220,7 @@
         <v>141.7273002655577</v>
       </c>
       <c r="Q21" t="n">
-        <v>61.96571694905468</v>
+        <v>329.3743543021391</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36296,7 +36296,7 @@
         <v>306.3384429156903</v>
       </c>
       <c r="P22" t="n">
-        <v>67.02103537946444</v>
+        <v>67.02103537946421</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.39470526283472</v>
+        <v>72.39470526283429</v>
       </c>
       <c r="K23" t="n">
         <v>141.8140653429613</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>30.76263845869285</v>
+        <v>227.4646535897306</v>
       </c>
       <c r="K24" t="n">
         <v>103.8920227361633</v>
       </c>
       <c r="L24" t="n">
-        <v>293.711391006248</v>
+        <v>170.1094352880266</v>
       </c>
       <c r="M24" t="n">
-        <v>355.025423932859</v>
+        <v>211.2187422979956</v>
       </c>
       <c r="N24" t="n">
         <v>226.2692953149694</v>
@@ -36457,10 +36457,10 @@
         <v>141.7273002655577</v>
       </c>
       <c r="Q24" t="n">
-        <v>61.96571694905468</v>
+        <v>81.9544248297188</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>50.71791434138245</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,7 +36521,7 @@
         <v>32.85315678258227</v>
       </c>
       <c r="L25" t="n">
-        <v>139.5732430862152</v>
+        <v>315.1363838440043</v>
       </c>
       <c r="M25" t="n">
         <v>345.6428833866353</v>
@@ -36533,7 +36533,7 @@
         <v>306.3384429156903</v>
       </c>
       <c r="P25" t="n">
-        <v>242.5841761372536</v>
+        <v>67.02103537946444</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>141.8140653429613</v>
       </c>
       <c r="L26" t="n">
-        <v>200.1613176180883</v>
+        <v>200.1613176180878</v>
       </c>
       <c r="M26" t="n">
         <v>243.5110977956555</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>30.76263845869285</v>
+        <v>227.4646535897306</v>
       </c>
       <c r="K27" t="n">
         <v>103.8920227361633</v>
@@ -36694,10 +36694,10 @@
         <v>141.7273002655577</v>
       </c>
       <c r="Q27" t="n">
-        <v>278.656439960757</v>
+        <v>132.6723391711016</v>
       </c>
       <c r="R27" t="n">
-        <v>50.71791434138245</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,7 +36758,7 @@
         <v>32.85315678258227</v>
       </c>
       <c r="L28" t="n">
-        <v>315.1363838440043</v>
+        <v>139.5732430862152</v>
       </c>
       <c r="M28" t="n">
         <v>345.6428833866353</v>
@@ -36770,7 +36770,7 @@
         <v>306.3384429156903</v>
       </c>
       <c r="P28" t="n">
-        <v>67.02103537946444</v>
+        <v>242.5841761372536</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>141.8140653429613</v>
       </c>
       <c r="L29" t="n">
-        <v>200.1613176180883</v>
+        <v>200.1613176180878</v>
       </c>
       <c r="M29" t="n">
         <v>243.5110977956555</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>30.76263845869285</v>
+        <v>227.4646535897306</v>
       </c>
       <c r="K30" t="n">
         <v>103.8920227361633</v>
@@ -36919,22 +36919,22 @@
         <v>170.1094352880266</v>
       </c>
       <c r="M30" t="n">
-        <v>355.025423932859</v>
+        <v>211.2187422979956</v>
       </c>
       <c r="N30" t="n">
         <v>226.2692953149694</v>
       </c>
       <c r="O30" t="n">
-        <v>316.0054012130678</v>
+        <v>192.4034454948465</v>
       </c>
       <c r="P30" t="n">
         <v>141.7273002655577</v>
       </c>
       <c r="Q30" t="n">
-        <v>61.96571694905468</v>
+        <v>81.95442482971858</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>50.71791434138245</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,22 +36995,22 @@
         <v>32.85315678258227</v>
       </c>
       <c r="L31" t="n">
-        <v>98.62523673888226</v>
+        <v>315.1363838440043</v>
       </c>
       <c r="M31" t="n">
         <v>345.6428833866353</v>
       </c>
       <c r="N31" t="n">
-        <v>338.7653318500146</v>
+        <v>70.72969357265424</v>
       </c>
       <c r="O31" t="n">
-        <v>306.3384429156903</v>
+        <v>270.2878480292555</v>
       </c>
       <c r="P31" t="n">
         <v>242.5841761372536</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>87.57508605867255</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>243.5110977956555</v>
       </c>
       <c r="N32" t="n">
-        <v>250.480630068521</v>
+        <v>250.4806300685205</v>
       </c>
       <c r="O32" t="n">
         <v>227.7662816228626</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>227.4646535897306</v>
+        <v>30.76263845869285</v>
       </c>
       <c r="K33" t="n">
         <v>103.8920227361633</v>
@@ -37165,13 +37165,13 @@
         <v>192.4034454948465</v>
       </c>
       <c r="P33" t="n">
-        <v>161.7160081462222</v>
+        <v>141.7273002655577</v>
       </c>
       <c r="Q33" t="n">
-        <v>61.96571694905468</v>
+        <v>329.3743543021395</v>
       </c>
       <c r="R33" t="n">
-        <v>50.71791434138245</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,22 +37232,22 @@
         <v>32.85315678258227</v>
       </c>
       <c r="L34" t="n">
-        <v>98.62523673888226</v>
+        <v>315.1363838440043</v>
       </c>
       <c r="M34" t="n">
-        <v>345.6428833866353</v>
+        <v>67.16781236790008</v>
       </c>
       <c r="N34" t="n">
         <v>338.7653318500146</v>
       </c>
       <c r="O34" t="n">
-        <v>306.3384429156903</v>
+        <v>280.7272807706308</v>
       </c>
       <c r="P34" t="n">
         <v>242.5841761372536</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>87.57508605867255</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>30.76263845869285</v>
       </c>
       <c r="K36" t="n">
-        <v>320.5827457478651</v>
+        <v>355.025423932859</v>
       </c>
       <c r="L36" t="n">
         <v>170.1094352880266</v>
@@ -37405,10 +37405,10 @@
         <v>141.7273002655577</v>
       </c>
       <c r="Q36" t="n">
-        <v>61.96571694905468</v>
+        <v>78.24095310544374</v>
       </c>
       <c r="R36" t="n">
-        <v>50.71791434138245</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>40.9480063473329</v>
       </c>
       <c r="K37" t="n">
         <v>32.85315678258227</v>
       </c>
       <c r="L37" t="n">
-        <v>315.1363838440043</v>
+        <v>61.67584943917942</v>
       </c>
       <c r="M37" t="n">
         <v>345.6428833866353</v>
@@ -37478,13 +37478,13 @@
         <v>338.7653318500146</v>
       </c>
       <c r="O37" t="n">
-        <v>306.3384429156903</v>
+        <v>255.7127441567205</v>
       </c>
       <c r="P37" t="n">
-        <v>31.97393736734952</v>
+        <v>242.5841761372536</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.04709801211447</v>
+        <v>87.57508605867255</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>72.39470526283424</v>
+        <v>72.39470526283429</v>
       </c>
       <c r="K38" t="n">
         <v>141.8140653429613</v>
       </c>
       <c r="L38" t="n">
-        <v>200.1613176180877</v>
+        <v>200.1613176180878</v>
       </c>
       <c r="M38" t="n">
         <v>243.5110977956555</v>
       </c>
       <c r="N38" t="n">
-        <v>250.4806300685204</v>
+        <v>250.4806300685205</v>
       </c>
       <c r="O38" t="n">
-        <v>227.7662816228627</v>
+        <v>227.7662816228626</v>
       </c>
       <c r="P38" t="n">
         <v>171.7410795248173</v>
       </c>
       <c r="Q38" t="n">
-        <v>97.34182739257312</v>
+        <v>97.34182739257315</v>
       </c>
       <c r="R38" t="n">
-        <v>0.5462295300782785</v>
+        <v>0.5462295300783069</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>30.76263845869282</v>
+        <v>227.4646535897306</v>
       </c>
       <c r="K39" t="n">
         <v>103.8920227361633</v>
       </c>
       <c r="L39" t="n">
-        <v>258.044029681839</v>
+        <v>170.1094352880266</v>
       </c>
       <c r="M39" t="n">
-        <v>211.2187422979955</v>
+        <v>211.2187422979956</v>
       </c>
       <c r="N39" t="n">
-        <v>355.0254239328589</v>
+        <v>226.2692953149694</v>
       </c>
       <c r="O39" t="n">
-        <v>192.4034454948464</v>
+        <v>192.4034454948465</v>
       </c>
       <c r="P39" t="n">
         <v>141.7273002655577</v>
       </c>
       <c r="Q39" t="n">
-        <v>61.96571694905465</v>
+        <v>132.6723391711016</v>
       </c>
       <c r="R39" t="n">
-        <v>50.71791434138244</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>40.94800634733289</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>32.85315678258225</v>
+        <v>135.7650870435283</v>
       </c>
       <c r="L40" t="n">
         <v>315.1363838440043</v>
       </c>
       <c r="M40" t="n">
-        <v>67.16781236790005</v>
+        <v>67.16781236790008</v>
       </c>
       <c r="N40" t="n">
         <v>338.7653318500146</v>
@@ -37718,10 +37718,10 @@
         <v>306.3384429156903</v>
       </c>
       <c r="P40" t="n">
-        <v>216.9730139921937</v>
+        <v>242.5841761372536</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.57508605867254</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>72.39470526283424</v>
+        <v>72.39470526283429</v>
       </c>
       <c r="K41" t="n">
         <v>141.8140653429613</v>
       </c>
       <c r="L41" t="n">
-        <v>200.1613176180877</v>
+        <v>200.1613176180878</v>
       </c>
       <c r="M41" t="n">
         <v>243.5110977956555</v>
       </c>
       <c r="N41" t="n">
-        <v>250.4806300685204</v>
+        <v>250.4806300685205</v>
       </c>
       <c r="O41" t="n">
-        <v>227.7662816228625</v>
+        <v>227.7662816228626</v>
       </c>
       <c r="P41" t="n">
         <v>171.7410795248173</v>
       </c>
       <c r="Q41" t="n">
-        <v>97.34182739257312</v>
+        <v>97.34182739257315</v>
       </c>
       <c r="R41" t="n">
-        <v>0.5462295300782785</v>
+        <v>0.5462295300783069</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>30.76263845869282</v>
+        <v>30.76263845869285</v>
       </c>
       <c r="K42" t="n">
         <v>103.8920227361633</v>
       </c>
       <c r="L42" t="n">
-        <v>170.1094352880265</v>
+        <v>170.1094352880266</v>
       </c>
       <c r="M42" t="n">
-        <v>211.2187422979955</v>
+        <v>211.2187422979956</v>
       </c>
       <c r="N42" t="n">
         <v>226.2692953149694</v>
       </c>
       <c r="O42" t="n">
-        <v>192.4034454948464</v>
+        <v>192.4034454948465</v>
       </c>
       <c r="P42" t="n">
         <v>141.7273002655577</v>
       </c>
       <c r="Q42" t="n">
-        <v>329.3743543021393</v>
+        <v>278.656439960757</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>50.71791434138245</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>40.94800634733289</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>199.3734322802402</v>
+        <v>32.85315678258227</v>
       </c>
       <c r="L43" t="n">
-        <v>98.87487471332815</v>
+        <v>315.1363838440043</v>
       </c>
       <c r="M43" t="n">
         <v>345.6428833866353</v>
@@ -37952,13 +37952,13 @@
         <v>338.7653318500146</v>
       </c>
       <c r="O43" t="n">
-        <v>51.99344338491365</v>
+        <v>306.3384429156903</v>
       </c>
       <c r="P43" t="n">
-        <v>242.5841761372536</v>
+        <v>67.02103537946444</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.57508605867254</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.39470526283468</v>
+        <v>72.39470526283429</v>
       </c>
       <c r="K44" t="n">
         <v>141.8140653429613</v>
       </c>
       <c r="L44" t="n">
-        <v>200.1613176180877</v>
+        <v>200.1613176180878</v>
       </c>
       <c r="M44" t="n">
         <v>243.5110977956555</v>
       </c>
       <c r="N44" t="n">
-        <v>250.4806300685204</v>
+        <v>250.4806300685205</v>
       </c>
       <c r="O44" t="n">
-        <v>227.7662816228625</v>
+        <v>227.7662816228626</v>
       </c>
       <c r="P44" t="n">
         <v>171.7410795248173</v>
       </c>
       <c r="Q44" t="n">
-        <v>97.34182739257312</v>
+        <v>97.34182739257315</v>
       </c>
       <c r="R44" t="n">
-        <v>0.5462295300782785</v>
+        <v>0.5462295300783069</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>227.4646535897306</v>
+        <v>118.6972328525051</v>
       </c>
       <c r="K45" t="n">
         <v>103.8920227361633</v>
       </c>
       <c r="L45" t="n">
-        <v>170.1094352880265</v>
+        <v>170.1094352880266</v>
       </c>
       <c r="M45" t="n">
-        <v>211.2187422979955</v>
+        <v>211.2187422979956</v>
       </c>
       <c r="N45" t="n">
-        <v>226.2692953149694</v>
+        <v>355.0254239328589</v>
       </c>
       <c r="O45" t="n">
-        <v>192.4034454948464</v>
+        <v>192.4034454948465</v>
       </c>
       <c r="P45" t="n">
-        <v>161.7160081462222</v>
+        <v>141.7273002655577</v>
       </c>
       <c r="Q45" t="n">
-        <v>61.96571694905465</v>
+        <v>61.96571694905468</v>
       </c>
       <c r="R45" t="n">
-        <v>50.71791434138244</v>
+        <v>50.71791434138245</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>40.94800634733289</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>199.3734322802402</v>
+        <v>32.85315678258227</v>
       </c>
       <c r="L46" t="n">
-        <v>315.1363838440043</v>
+        <v>139.5732430862145</v>
       </c>
       <c r="M46" t="n">
-        <v>216.9564603146317</v>
+        <v>345.6428833866353</v>
       </c>
       <c r="N46" t="n">
         <v>338.7653318500146</v>
       </c>
       <c r="O46" t="n">
-        <v>51.99344338491365</v>
+        <v>306.3384429156903</v>
       </c>
       <c r="P46" t="n">
         <v>242.5841761372536</v>
